--- a/fossil_full.xlsx
+++ b/fossil_full.xlsx
@@ -3281,19 +3281,19 @@
       </c>
       <c r="UY1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - POL][END][NONBIOGASO]</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - POL][REFIN][LPG]</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - POL][REFIN][NONBIOGASO]</t>
         </is>
       </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - POL][END][NONBIOGASO]</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - POL][REFIN][LPG]</t>
-        </is>
-      </c>
       <c r="VB1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - POL][END][NONBIODIES]</t>
@@ -3316,17 +3316,17 @@
       </c>
       <c r="VF1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - POL][END][COKCOAL]</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - POL][EXTRACT][NATGAS]</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - POL][END][NATGAS]</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - POL][END][COKCOAL]</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - POL][EXTRACT][NATGAS]</t>
         </is>
       </c>
       <c r="VI1" s="1" t="inlineStr">
@@ -5472,13 +5472,13 @@
       </c>
       <c r="VD2" t="inlineStr"/>
       <c r="VE2" t="inlineStr"/>
-      <c r="VF2" t="inlineStr"/>
+      <c r="VF2" t="n">
+        <v>4230307</v>
+      </c>
       <c r="VG2" t="n">
-        <v>4230307</v>
-      </c>
-      <c r="VH2" t="n">
         <v>1181500000</v>
       </c>
+      <c r="VH2" t="inlineStr"/>
       <c r="VI2" t="n">
         <v>12464034</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>196548</v>
       </c>
       <c r="UV3" t="n">
-        <v>76300068</v>
+        <v>44683219</v>
       </c>
       <c r="UW3" t="n">
         <v>6988251</v>
@@ -7242,13 +7242,13 @@
       <c r="VE3" t="n">
         <v>169980000</v>
       </c>
-      <c r="VF3" t="inlineStr"/>
+      <c r="VF3" t="n">
+        <v>30007590</v>
+      </c>
       <c r="VG3" t="n">
-        <v>30007590</v>
-      </c>
-      <c r="VH3" t="n">
         <v>588100000</v>
       </c>
+      <c r="VH3" t="inlineStr"/>
       <c r="VI3" t="n">
         <v>17641665</v>
       </c>
@@ -9046,13 +9046,13 @@
       <c r="VE4" t="n">
         <v>170760000</v>
       </c>
-      <c r="VF4" t="inlineStr"/>
+      <c r="VF4" t="n">
+        <v>28505723</v>
+      </c>
       <c r="VG4" t="n">
-        <v>28505723</v>
-      </c>
-      <c r="VH4" t="n">
         <v>303800000</v>
       </c>
+      <c r="VH4" t="inlineStr"/>
       <c r="VI4" t="n">
         <v>13827410</v>
       </c>
@@ -10870,13 +10870,13 @@
       </c>
       <c r="VD5" t="inlineStr"/>
       <c r="VE5" t="inlineStr"/>
-      <c r="VF5" t="inlineStr"/>
+      <c r="VF5" t="n">
+        <v>29751687</v>
+      </c>
       <c r="VG5" t="n">
-        <v>29751687</v>
-      </c>
-      <c r="VH5" t="n">
         <v>469300000</v>
       </c>
+      <c r="VH5" t="inlineStr"/>
       <c r="VI5" t="n">
         <v>12131368</v>
       </c>
@@ -12716,13 +12716,13 @@
       </c>
       <c r="VD6" t="inlineStr"/>
       <c r="VE6" t="inlineStr"/>
-      <c r="VF6" t="inlineStr"/>
+      <c r="VF6" t="n">
+        <v>31926708</v>
+      </c>
       <c r="VG6" t="n">
-        <v>31926708</v>
-      </c>
-      <c r="VH6" t="n">
         <v>111600000</v>
       </c>
+      <c r="VH6" t="inlineStr"/>
       <c r="VI6" t="n">
         <v>17883459</v>
       </c>
@@ -14568,13 +14568,13 @@
       </c>
       <c r="VD7" t="inlineStr"/>
       <c r="VE7" t="inlineStr"/>
-      <c r="VF7" t="inlineStr"/>
+      <c r="VF7" t="n">
+        <v>34468978</v>
+      </c>
       <c r="VG7" t="n">
-        <v>34468978</v>
-      </c>
-      <c r="VH7" t="n">
         <v>50400000</v>
       </c>
+      <c r="VH7" t="inlineStr"/>
       <c r="VI7" t="n">
         <v>12428454</v>
       </c>
@@ -16438,13 +16438,13 @@
       </c>
       <c r="VD8" t="inlineStr"/>
       <c r="VE8" t="inlineStr"/>
-      <c r="VF8" t="inlineStr"/>
+      <c r="VF8" t="n">
+        <v>34267792</v>
+      </c>
       <c r="VG8" t="n">
-        <v>34267792</v>
-      </c>
-      <c r="VH8" t="n">
         <v>988100000</v>
       </c>
+      <c r="VH8" t="inlineStr"/>
       <c r="VI8" t="n">
         <v>25988145</v>
       </c>
@@ -18290,13 +18290,13 @@
       </c>
       <c r="VD9" t="inlineStr"/>
       <c r="VE9" t="inlineStr"/>
-      <c r="VF9" t="inlineStr"/>
+      <c r="VF9" t="n">
+        <v>32444137</v>
+      </c>
       <c r="VG9" t="n">
-        <v>32444137</v>
-      </c>
-      <c r="VH9" t="n">
         <v>1173800000</v>
       </c>
+      <c r="VH9" t="inlineStr"/>
       <c r="VI9" t="n">
         <v>4288666</v>
       </c>
@@ -20120,13 +20120,13 @@
       </c>
       <c r="VD10" t="inlineStr"/>
       <c r="VE10" t="inlineStr"/>
-      <c r="VF10" t="inlineStr"/>
+      <c r="VF10" t="n">
+        <v>34649137</v>
+      </c>
       <c r="VG10" t="n">
-        <v>34649137</v>
-      </c>
-      <c r="VH10" t="n">
         <v>31002730</v>
       </c>
+      <c r="VH10" t="inlineStr"/>
       <c r="VI10" t="n">
         <v>4065653</v>
       </c>
@@ -21955,20 +21955,20 @@
       <c r="UZ11" t="inlineStr"/>
       <c r="VA11" t="inlineStr"/>
       <c r="VB11" t="n">
-        <v>1119611627</v>
+        <v>4599223254</v>
       </c>
       <c r="VC11" t="n">
         <v>90596197</v>
       </c>
       <c r="VD11" t="inlineStr"/>
       <c r="VE11" t="inlineStr"/>
-      <c r="VF11" t="inlineStr"/>
+      <c r="VF11" t="n">
+        <v>37533631</v>
+      </c>
       <c r="VG11" t="n">
-        <v>37533631</v>
-      </c>
-      <c r="VH11" t="n">
         <v>31778793</v>
       </c>
+      <c r="VH11" t="inlineStr"/>
       <c r="VI11" t="n">
         <v>3476871</v>
       </c>
@@ -23756,7 +23756,7 @@
         <v>172363</v>
       </c>
       <c r="UW12" t="n">
-        <v>130000000</v>
+        <v>25786070</v>
       </c>
       <c r="UX12" t="n">
         <v>1173600000</v>
@@ -23772,13 +23772,13 @@
       </c>
       <c r="VD12" t="inlineStr"/>
       <c r="VE12" t="inlineStr"/>
-      <c r="VF12" t="inlineStr"/>
+      <c r="VF12" t="n">
+        <v>41651104</v>
+      </c>
       <c r="VG12" t="n">
-        <v>41651104</v>
-      </c>
-      <c r="VH12" t="n">
         <v>36745936</v>
       </c>
+      <c r="VH12" t="inlineStr"/>
       <c r="VI12" t="n">
         <v>3072367</v>
       </c>
@@ -25596,13 +25596,13 @@
       </c>
       <c r="VD13" t="inlineStr"/>
       <c r="VE13" t="inlineStr"/>
-      <c r="VF13" t="inlineStr"/>
+      <c r="VF13" t="n">
+        <v>39039389</v>
+      </c>
       <c r="VG13" t="n">
-        <v>39039389</v>
-      </c>
-      <c r="VH13" t="n">
         <v>12286704</v>
       </c>
+      <c r="VH13" t="inlineStr"/>
       <c r="VI13" t="n">
         <v>1257066</v>
       </c>
@@ -27465,7 +27465,7 @@
         <v>2734571</v>
       </c>
       <c r="UV14" t="n">
-        <v>31266112</v>
+        <v>13645329</v>
       </c>
       <c r="UW14" t="n">
         <v>34588421</v>
@@ -27474,13 +27474,13 @@
         <v>11115049483</v>
       </c>
       <c r="UY14" t="n">
+        <v>13300000000</v>
+      </c>
+      <c r="UZ14" t="n">
+        <v>16896346</v>
+      </c>
+      <c r="VA14" t="n">
         <v>97044327</v>
-      </c>
-      <c r="UZ14" t="n">
-        <v>13300000000</v>
-      </c>
-      <c r="VA14" t="n">
-        <v>16896346</v>
       </c>
       <c r="VB14" t="n">
         <v>5209923724</v>
@@ -27493,13 +27493,13 @@
       </c>
       <c r="VE14" t="inlineStr"/>
       <c r="VF14" t="n">
+        <v>39225165</v>
+      </c>
+      <c r="VG14" t="n">
+        <v>9239770</v>
+      </c>
+      <c r="VH14" t="n">
         <v>3033748778</v>
-      </c>
-      <c r="VG14" t="n">
-        <v>39225165</v>
-      </c>
-      <c r="VH14" t="n">
-        <v>9239770</v>
       </c>
       <c r="VI14" t="n">
         <v>1101508</v>

--- a/fossil_full.xlsx
+++ b/fossil_full.xlsx
@@ -1806,29 +1806,29 @@
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - FRA][REFIN][RESFUEL]</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - FRA][END][OVENCOKE]</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][BITCOAL]</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][NONBIOJETK]</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][LPG]</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - FRA][REFIN][RESFUEL]</t>
-        </is>
-      </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][REFINGAS]</t>
@@ -1871,44 +1871,44 @@
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - FRA][GENER][ELECTR]</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - FRA][END][WHITESP]</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][LUBRIC]</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][EXTRACT][BITCOAL]</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][INDUS][BITCOAL]</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - FRA][END][COKCOAL]</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - FRA][TRANS][NONBIOGASO]</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][REFIN][PETCOKE]</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - FRA][END][COKCOAL]</t>
-        </is>
-      </c>
-      <c r="KI1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - FRA][TRANS][NONBIOGASO]</t>
-        </is>
-      </c>
-      <c r="KJ1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - FRA][GENER][ELECTR]</t>
-        </is>
-      </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][TRANS][LPG]</t>
@@ -1921,29 +1921,29 @@
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - GBR][EXTRACT][CRUDEOIL]</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - GBR][END][RESFUEL]</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - GBR][END][BITCOAL]</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - GBR][EXTRACT][NATGAS]</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - GBR][EXTRACT][NGL]</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - GBR][EXTRACT][CRUDEOIL]</t>
-        </is>
-      </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - GBR][END][BITCOAL]</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - GBR][EXTRACT][NATGAS]</t>
-        </is>
-      </c>
-      <c r="KQ1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - GBR][END][RESFUEL]</t>
-        </is>
-      </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - GBR][END][PATFUEL]</t>
@@ -1951,14 +1951,14 @@
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - GBR][END][ELECTR]</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - GBR][END][NONBIODIES]</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - GBR][END][ELECTR]</t>
-        </is>
-      </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - GBR][END][NONBIOJETK]</t>
@@ -2411,29 +2411,29 @@
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - ITA][EXTRACT][BITCOAL]</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - ITA][END][PETCOKE]</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - ITA][INDUS][LUBRIC]</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - ITA][END][NATGAS]</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - ITA][GENER][BITCOAL]</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - ITA][EXTRACT][BITCOAL]</t>
-        </is>
-      </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - ITA][END][LPG]</t>
@@ -2556,34 +2556,34 @@
       </c>
       <c r="PJ1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - JPN][EXTRACT][NATGAS]</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - JPN][EXTRACT][CRUDEOIL]</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - JPN][EXTRACT][NGL]</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - JPN][TRANS][NATGAS]</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - JPN][END][OTHKERO]</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - JPN][END][LPG]</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - JPN][EXTRACT][NATGAS]</t>
-        </is>
-      </c>
       <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - JPN][EXTRACT][ANTCOAL]</t>
@@ -2646,17 +2646,17 @@
       </c>
       <c r="QB1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - JPN][TRANS][NONBIODIES]</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - JPN][TRANS][NONBIOJETK]</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - JPN][REFIN][NGL]</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - JPN][TRANS][NONBIODIES]</t>
         </is>
       </c>
       <c r="QE1" s="1" t="inlineStr">
@@ -4767,7 +4767,7 @@
         <v>1715207</v>
       </c>
       <c r="JD2" t="n">
-        <v>1524490</v>
+        <v>200000000</v>
       </c>
       <c r="JE2" t="n">
         <v>495519</v>
@@ -4782,7 +4782,7 @@
         <v>98167</v>
       </c>
       <c r="JI2" t="n">
-        <v>2017375</v>
+        <v>440600</v>
       </c>
       <c r="JJ2" t="inlineStr"/>
       <c r="JK2" t="n">
@@ -4793,21 +4793,21 @@
       </c>
       <c r="JM2" t="inlineStr"/>
       <c r="JN2" t="n">
-        <v>9075083</v>
+        <v>1249677</v>
       </c>
       <c r="JO2" t="n">
         <v>2000000</v>
       </c>
-      <c r="JP2" t="inlineStr"/>
+      <c r="JP2" t="n">
+        <v>12890410</v>
+      </c>
       <c r="JQ2" t="inlineStr"/>
-      <c r="JR2" t="n">
-        <v>11849294</v>
-      </c>
+      <c r="JR2" t="inlineStr"/>
       <c r="JS2" t="n">
+        <v>312092046</v>
+      </c>
+      <c r="JT2" t="n">
         <v>2611859</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>12890410</v>
       </c>
       <c r="JU2" t="inlineStr"/>
       <c r="JV2" t="n">
@@ -4827,49 +4827,49 @@
       <c r="KB2" t="n">
         <v>20801928</v>
       </c>
-      <c r="KC2" t="n">
+      <c r="KC2" t="inlineStr"/>
+      <c r="KD2" t="n">
         <v>5152866</v>
       </c>
-      <c r="KD2" t="n">
+      <c r="KE2" t="n">
         <v>2539840</v>
       </c>
-      <c r="KE2" t="inlineStr"/>
-      <c r="KF2" t="n">
+      <c r="KF2" t="inlineStr"/>
+      <c r="KG2" t="n">
         <v>3000000</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>14452735</v>
       </c>
       <c r="KH2" t="inlineStr"/>
       <c r="KI2" t="inlineStr"/>
-      <c r="KJ2" t="inlineStr"/>
+      <c r="KJ2" t="n">
+        <v>14452735</v>
+      </c>
       <c r="KK2" t="inlineStr"/>
       <c r="KL2" t="n">
         <v>5000000</v>
       </c>
       <c r="KM2" t="n">
-        <v>461562</v>
+        <v>55124039</v>
       </c>
       <c r="KN2" t="n">
-        <v>55124039</v>
+        <v>175660746</v>
       </c>
       <c r="KO2" t="n">
-        <v>6983133</v>
+        <v>69831334</v>
       </c>
       <c r="KP2" t="n">
         <v>4320357</v>
       </c>
       <c r="KQ2" t="n">
-        <v>175660746</v>
+        <v>461562</v>
       </c>
       <c r="KR2" t="n">
         <v>21860509</v>
       </c>
       <c r="KS2" t="n">
+        <v>799160246</v>
+      </c>
+      <c r="KT2" t="n">
         <v>671341450</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>799160246</v>
       </c>
       <c r="KU2" t="inlineStr"/>
       <c r="KV2" t="inlineStr"/>
@@ -5097,16 +5097,16 @@
       <c r="OD2" t="inlineStr"/>
       <c r="OE2" t="inlineStr"/>
       <c r="OF2" t="n">
-        <v>816800000</v>
-      </c>
-      <c r="OG2" t="inlineStr"/>
+        <v>16000000</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>505361</v>
+      </c>
       <c r="OH2" t="inlineStr"/>
       <c r="OI2" t="inlineStr"/>
-      <c r="OJ2" t="n">
+      <c r="OJ2" t="inlineStr"/>
+      <c r="OK2" t="n">
         <v>649783664</v>
-      </c>
-      <c r="OK2" t="n">
-        <v>505361</v>
       </c>
       <c r="OL2" t="n">
         <v>96627873</v>
@@ -5152,29 +5152,29 @@
         <v>271033348</v>
       </c>
       <c r="PI2" t="n">
-        <v>17222000000</v>
+        <v>10145000000</v>
       </c>
       <c r="PJ2" t="n">
-        <v>2206832062</v>
+        <v>1071725496</v>
       </c>
       <c r="PK2" t="n">
+        <v>1185000000</v>
+      </c>
+      <c r="PL2" t="n">
         <v>400525442</v>
       </c>
-      <c r="PL2" t="n">
+      <c r="PM2" t="n">
         <v>385000000</v>
       </c>
-      <c r="PM2" t="inlineStr"/>
-      <c r="PN2" t="n">
+      <c r="PN2" t="inlineStr"/>
+      <c r="PO2" t="n">
         <v>287000000</v>
-      </c>
-      <c r="PO2" t="n">
-        <v>22278025752</v>
       </c>
       <c r="PP2" t="n">
         <v>49944501</v>
       </c>
       <c r="PQ2" t="n">
-        <v>458587241</v>
+        <v>471507937</v>
       </c>
       <c r="PR2" t="n">
         <v>2960000000</v>
@@ -5453,7 +5453,7 @@
         <v>66700</v>
       </c>
       <c r="UV2" t="n">
-        <v>2928035</v>
+        <v>2381095</v>
       </c>
       <c r="UW2" t="n">
         <v>10318905</v>
@@ -5465,7 +5465,7 @@
       <c r="UZ2" t="inlineStr"/>
       <c r="VA2" t="inlineStr"/>
       <c r="VB2" t="n">
-        <v>2672418520</v>
+        <v>616209260</v>
       </c>
       <c r="VC2" t="n">
         <v>444891955</v>
@@ -6509,7 +6509,7 @@
         <v>1675763</v>
       </c>
       <c r="JD3" t="n">
-        <v>278000000</v>
+        <v>1524490</v>
       </c>
       <c r="JE3" t="n">
         <v>598083</v>
@@ -6535,21 +6535,21 @@
       </c>
       <c r="JM3" t="inlineStr"/>
       <c r="JN3" t="n">
-        <v>7462041</v>
+        <v>8087874</v>
       </c>
       <c r="JO3" t="n">
         <v>3000000</v>
       </c>
-      <c r="JP3" t="inlineStr"/>
+      <c r="JP3" t="n">
+        <v>9676116</v>
+      </c>
       <c r="JQ3" t="inlineStr"/>
-      <c r="JR3" t="n">
+      <c r="JR3" t="inlineStr"/>
+      <c r="JS3" t="n">
         <v>626639318</v>
       </c>
-      <c r="JS3" t="n">
+      <c r="JT3" t="n">
         <v>2931843</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>9676116</v>
       </c>
       <c r="JU3" t="inlineStr"/>
       <c r="JV3" t="n">
@@ -6569,45 +6569,45 @@
       <c r="KB3" t="n">
         <v>11359224</v>
       </c>
-      <c r="KC3" t="n">
+      <c r="KC3" t="inlineStr"/>
+      <c r="KD3" t="n">
         <v>4006464</v>
       </c>
-      <c r="KD3" t="n">
+      <c r="KE3" t="n">
         <v>2828416</v>
       </c>
-      <c r="KE3" t="n">
+      <c r="KF3" t="n">
         <v>1150000</v>
       </c>
-      <c r="KF3" t="n">
+      <c r="KG3" t="n">
         <v>3000000</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>12013463</v>
       </c>
       <c r="KH3" t="inlineStr"/>
       <c r="KI3" t="inlineStr"/>
-      <c r="KJ3" t="inlineStr"/>
+      <c r="KJ3" t="n">
+        <v>12013463</v>
+      </c>
       <c r="KK3" t="inlineStr"/>
       <c r="KL3" t="n">
         <v>3601952079</v>
       </c>
       <c r="KM3" t="n">
-        <v>16368074</v>
-      </c>
-      <c r="KN3" t="n">
         <v>37271988</v>
       </c>
+      <c r="KN3" t="inlineStr"/>
       <c r="KO3" t="inlineStr"/>
       <c r="KP3" t="inlineStr"/>
-      <c r="KQ3" t="inlineStr"/>
+      <c r="KQ3" t="n">
+        <v>16368074</v>
+      </c>
       <c r="KR3" t="n">
         <v>27514508</v>
       </c>
       <c r="KS3" t="n">
+        <v>999141962</v>
+      </c>
+      <c r="KT3" t="n">
         <v>21774905</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>999141962</v>
       </c>
       <c r="KU3" t="n">
         <v>4776623</v>
@@ -6847,16 +6847,16 @@
       <c r="OF3" t="n">
         <v>24800000</v>
       </c>
-      <c r="OG3" t="inlineStr"/>
+      <c r="OG3" t="n">
+        <v>442331</v>
+      </c>
       <c r="OH3" t="inlineStr"/>
-      <c r="OI3" t="n">
+      <c r="OI3" t="inlineStr"/>
+      <c r="OJ3" t="n">
         <v>1150886</v>
       </c>
-      <c r="OJ3" t="n">
+      <c r="OK3" t="n">
         <v>601256128</v>
-      </c>
-      <c r="OK3" t="n">
-        <v>442331</v>
       </c>
       <c r="OL3" t="n">
         <v>21275731</v>
@@ -6917,20 +6917,20 @@
         <v>9835000000</v>
       </c>
       <c r="PJ3" t="n">
+        <v>3303565668</v>
+      </c>
+      <c r="PK3" t="n">
         <v>5706310220</v>
       </c>
-      <c r="PK3" t="n">
+      <c r="PL3" t="n">
         <v>446993932</v>
       </c>
-      <c r="PL3" t="n">
+      <c r="PM3" t="n">
         <v>479000000</v>
       </c>
-      <c r="PM3" t="inlineStr"/>
-      <c r="PN3" t="n">
-        <v>276000000</v>
-      </c>
+      <c r="PN3" t="inlineStr"/>
       <c r="PO3" t="n">
-        <v>22792273409</v>
+        <v>46393897</v>
       </c>
       <c r="PP3" t="n">
         <v>120537111</v>
@@ -6942,7 +6942,7 @@
         <v>2757000000</v>
       </c>
       <c r="PS3" t="n">
-        <v>202617170</v>
+        <v>317675906</v>
       </c>
       <c r="PT3" t="n">
         <v>2365233371</v>
@@ -6964,11 +6964,11 @@
       <c r="QA3" t="n">
         <v>1158595992</v>
       </c>
-      <c r="QB3" t="inlineStr"/>
+      <c r="QB3" t="n">
+        <v>50822058</v>
+      </c>
       <c r="QC3" t="inlineStr"/>
-      <c r="QD3" t="n">
-        <v>50822058</v>
-      </c>
+      <c r="QD3" t="inlineStr"/>
       <c r="QE3" t="inlineStr"/>
       <c r="QF3" t="n">
         <v>100272427</v>
@@ -8281,7 +8281,7 @@
         <v>1717058</v>
       </c>
       <c r="JD4" t="n">
-        <v>114657599</v>
+        <v>2928548</v>
       </c>
       <c r="JE4" t="n">
         <v>228601</v>
@@ -8312,16 +8312,16 @@
       <c r="JO4" t="n">
         <v>3000000</v>
       </c>
-      <c r="JP4" t="inlineStr"/>
+      <c r="JP4" t="n">
+        <v>5494029</v>
+      </c>
       <c r="JQ4" t="inlineStr"/>
-      <c r="JR4" t="n">
+      <c r="JR4" t="inlineStr"/>
+      <c r="JS4" t="n">
         <v>575361655</v>
       </c>
-      <c r="JS4" t="n">
+      <c r="JT4" t="n">
         <v>2849182</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>5494029</v>
       </c>
       <c r="JU4" t="inlineStr"/>
       <c r="JV4" t="n">
@@ -8341,51 +8341,51 @@
       <c r="KB4" t="n">
         <v>12551286</v>
       </c>
-      <c r="KC4" t="n">
+      <c r="KC4" t="inlineStr"/>
+      <c r="KD4" t="n">
         <v>7956785</v>
       </c>
-      <c r="KD4" t="n">
+      <c r="KE4" t="n">
         <v>2830494</v>
       </c>
-      <c r="KE4" t="n">
+      <c r="KF4" t="n">
         <v>2274000</v>
       </c>
-      <c r="KF4" t="n">
+      <c r="KG4" t="n">
         <v>3000000</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>10298770</v>
       </c>
       <c r="KH4" t="inlineStr"/>
       <c r="KI4" t="inlineStr"/>
-      <c r="KJ4" t="inlineStr"/>
+      <c r="KJ4" t="n">
+        <v>10298770</v>
+      </c>
       <c r="KK4" t="inlineStr"/>
       <c r="KL4" t="n">
-        <v>2510257</v>
+        <v>45184630</v>
       </c>
       <c r="KM4" t="n">
-        <v>1187900</v>
+        <v>32947039</v>
       </c>
       <c r="KN4" t="n">
-        <v>89427678</v>
+        <v>40199500</v>
       </c>
       <c r="KO4" t="n">
-        <v>97099969</v>
+        <v>2489743</v>
       </c>
       <c r="KP4" t="n">
         <v>14748022</v>
       </c>
       <c r="KQ4" t="n">
-        <v>40199500</v>
+        <v>339400</v>
       </c>
       <c r="KR4" t="n">
         <v>21653329</v>
       </c>
       <c r="KS4" t="n">
+        <v>819810518</v>
+      </c>
+      <c r="KT4" t="n">
         <v>697983573</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>819810518</v>
       </c>
       <c r="KU4" t="n">
         <v>4625420</v>
@@ -8635,20 +8635,20 @@
         <v>2000000</v>
       </c>
       <c r="OF4" t="n">
-        <v>16500000</v>
+        <v>500000</v>
       </c>
       <c r="OG4" t="n">
+        <v>314736</v>
+      </c>
+      <c r="OH4" t="n">
         <v>8226596</v>
       </c>
-      <c r="OH4" t="inlineStr"/>
-      <c r="OI4" t="n">
+      <c r="OI4" t="inlineStr"/>
+      <c r="OJ4" t="n">
         <v>835533116</v>
       </c>
-      <c r="OJ4" t="n">
+      <c r="OK4" t="n">
         <v>656576229</v>
-      </c>
-      <c r="OK4" t="n">
-        <v>314736</v>
       </c>
       <c r="OL4" t="n">
         <v>99715299</v>
@@ -8717,20 +8717,20 @@
         <v>6943000000</v>
       </c>
       <c r="PJ4" t="n">
-        <v>11428213</v>
+        <v>1444054541</v>
       </c>
       <c r="PK4" t="n">
+        <v>2429268761</v>
+      </c>
+      <c r="PL4" t="n">
         <v>604808968</v>
       </c>
-      <c r="PL4" t="n">
+      <c r="PM4" t="n">
         <v>617000000</v>
       </c>
-      <c r="PM4" t="inlineStr"/>
-      <c r="PN4" t="n">
-        <v>278000000</v>
-      </c>
+      <c r="PN4" t="inlineStr"/>
       <c r="PO4" t="n">
-        <v>1387600823</v>
+        <v>5052437</v>
       </c>
       <c r="PP4" t="n">
         <v>16580737</v>
@@ -8748,7 +8748,7 @@
         <v>1354821485</v>
       </c>
       <c r="PU4" t="n">
-        <v>9390944</v>
+        <v>3530000000</v>
       </c>
       <c r="PV4" t="n">
         <v>8938054</v>
@@ -8764,11 +8764,11 @@
       <c r="QA4" t="n">
         <v>152128728</v>
       </c>
-      <c r="QB4" t="inlineStr"/>
+      <c r="QB4" t="n">
+        <v>169044654</v>
+      </c>
       <c r="QC4" t="inlineStr"/>
-      <c r="QD4" t="n">
-        <v>169044654</v>
-      </c>
+      <c r="QD4" t="inlineStr"/>
       <c r="QE4" t="inlineStr"/>
       <c r="QF4" t="n">
         <v>334564402</v>
@@ -10099,7 +10099,7 @@
         <v>118584990</v>
       </c>
       <c r="JD5" t="n">
-        <v>69995968</v>
+        <v>1770000000</v>
       </c>
       <c r="JE5" t="n">
         <v>211515</v>
@@ -10125,21 +10125,21 @@
       </c>
       <c r="JM5" t="inlineStr"/>
       <c r="JN5" t="n">
-        <v>120885442</v>
+        <v>6883632</v>
       </c>
       <c r="JO5" t="n">
         <v>7294797</v>
       </c>
-      <c r="JP5" t="inlineStr"/>
+      <c r="JP5" t="n">
+        <v>3777823</v>
+      </c>
       <c r="JQ5" t="inlineStr"/>
-      <c r="JR5" t="n">
-        <v>135184030</v>
-      </c>
+      <c r="JR5" t="inlineStr"/>
       <c r="JS5" t="n">
+        <v>25927449</v>
+      </c>
+      <c r="JT5" t="n">
         <v>2785616</v>
-      </c>
-      <c r="JT5" t="n">
-        <v>3777823</v>
       </c>
       <c r="JU5" t="inlineStr"/>
       <c r="JV5" t="n">
@@ -10159,33 +10159,33 @@
       <c r="KB5" t="n">
         <v>14094719</v>
       </c>
-      <c r="KC5" t="n">
+      <c r="KC5" t="inlineStr"/>
+      <c r="KD5" t="n">
         <v>700072</v>
       </c>
-      <c r="KD5" t="n">
+      <c r="KE5" t="n">
         <v>3335217</v>
       </c>
-      <c r="KE5" t="n">
+      <c r="KF5" t="n">
         <v>1342000</v>
       </c>
-      <c r="KF5" t="n">
+      <c r="KG5" t="n">
         <v>3000000</v>
-      </c>
-      <c r="KG5" t="n">
-        <v>9213309</v>
       </c>
       <c r="KH5" t="inlineStr"/>
       <c r="KI5" t="inlineStr"/>
-      <c r="KJ5" t="inlineStr"/>
+      <c r="KJ5" t="n">
+        <v>9213309</v>
+      </c>
       <c r="KK5" t="inlineStr"/>
       <c r="KL5" t="n">
         <v>10000000</v>
       </c>
       <c r="KM5" t="n">
-        <v>1793935</v>
+        <v>4398848516</v>
       </c>
       <c r="KN5" t="n">
-        <v>4398848516</v>
+        <v>60669399</v>
       </c>
       <c r="KO5" t="n">
         <v>16757022</v>
@@ -10194,16 +10194,16 @@
         <v>3511151484</v>
       </c>
       <c r="KQ5" t="n">
-        <v>60669399</v>
+        <v>1403275</v>
       </c>
       <c r="KR5" t="n">
         <v>24867251</v>
       </c>
       <c r="KS5" t="n">
+        <v>724980084</v>
+      </c>
+      <c r="KT5" t="n">
         <v>619338413</v>
-      </c>
-      <c r="KT5" t="n">
-        <v>724980084</v>
       </c>
       <c r="KU5" t="n">
         <v>5408923</v>
@@ -10448,17 +10448,17 @@
         <v>500000</v>
       </c>
       <c r="OG5" t="n">
+        <v>62035</v>
+      </c>
+      <c r="OH5" t="n">
         <v>1387432</v>
       </c>
-      <c r="OH5" t="inlineStr"/>
-      <c r="OI5" t="n">
+      <c r="OI5" t="inlineStr"/>
+      <c r="OJ5" t="n">
         <v>1669653</v>
       </c>
-      <c r="OJ5" t="n">
+      <c r="OK5" t="n">
         <v>471395665</v>
-      </c>
-      <c r="OK5" t="n">
-        <v>62035</v>
       </c>
       <c r="OL5" t="n">
         <v>102066345</v>
@@ -10488,7 +10488,7 @@
         <v>5083375</v>
       </c>
       <c r="OU5" t="n">
-        <v>7361418</v>
+        <v>35501643</v>
       </c>
       <c r="OV5" t="n">
         <v>61000000</v>
@@ -10500,7 +10500,7 @@
         <v>2627403</v>
       </c>
       <c r="OY5" t="n">
-        <v>8477547</v>
+        <v>102816570</v>
       </c>
       <c r="OZ5" t="n">
         <v>483124</v>
@@ -10526,26 +10526,26 @@
         <v>53428800</v>
       </c>
       <c r="PI5" t="n">
-        <v>6490000000</v>
+        <v>105682000000</v>
       </c>
       <c r="PJ5" t="n">
+        <v>1661248801</v>
+      </c>
+      <c r="PK5" t="n">
         <v>1172270919</v>
       </c>
-      <c r="PK5" t="n">
+      <c r="PL5" t="n">
         <v>196163490</v>
       </c>
-      <c r="PL5" t="n">
+      <c r="PM5" t="n">
         <v>767000000</v>
       </c>
-      <c r="PM5" t="inlineStr"/>
-      <c r="PN5" t="n">
+      <c r="PN5" t="inlineStr"/>
+      <c r="PO5" t="n">
         <v>285000000</v>
       </c>
-      <c r="PO5" t="n">
-        <v>1661248801</v>
-      </c>
       <c r="PP5" t="n">
-        <v>63924415</v>
+        <v>17119417</v>
       </c>
       <c r="PQ5" t="n">
         <v>1678000000</v>
@@ -10557,10 +10557,10 @@
         <v>118421388</v>
       </c>
       <c r="PT5" t="n">
-        <v>1491925301</v>
+        <v>684055303</v>
       </c>
       <c r="PU5" t="n">
-        <v>302000000</v>
+        <v>7810000000</v>
       </c>
       <c r="PV5" t="n">
         <v>8308387</v>
@@ -10576,11 +10576,11 @@
       <c r="QA5" t="n">
         <v>165812562</v>
       </c>
-      <c r="QB5" t="inlineStr"/>
+      <c r="QB5" t="n">
+        <v>85618822</v>
+      </c>
       <c r="QC5" t="inlineStr"/>
-      <c r="QD5" t="n">
-        <v>85618822</v>
-      </c>
+      <c r="QD5" t="inlineStr"/>
       <c r="QE5" t="inlineStr"/>
       <c r="QF5" t="n">
         <v>167754844</v>
@@ -10851,7 +10851,7 @@
         <v>440168</v>
       </c>
       <c r="UV5" t="n">
-        <v>3699918</v>
+        <v>914990</v>
       </c>
       <c r="UW5" t="n">
         <v>3783710</v>
@@ -11945,25 +11945,25 @@
         <v>432225</v>
       </c>
       <c r="JP6" t="n">
+        <v>3495076</v>
+      </c>
+      <c r="JQ6" t="n">
         <v>870493</v>
       </c>
-      <c r="JQ6" t="n">
+      <c r="JR6" t="n">
         <v>794857</v>
       </c>
-      <c r="JR6" t="n">
+      <c r="JS6" t="n">
         <v>513618519</v>
       </c>
-      <c r="JS6" t="n">
+      <c r="JT6" t="n">
         <v>2651820</v>
-      </c>
-      <c r="JT6" t="n">
-        <v>3495076</v>
       </c>
       <c r="JU6" t="n">
         <v>143189</v>
       </c>
       <c r="JV6" t="n">
-        <v>27008598</v>
+        <v>97208351</v>
       </c>
       <c r="JW6" t="inlineStr"/>
       <c r="JX6" t="n">
@@ -11977,51 +11977,51 @@
       <c r="KB6" t="n">
         <v>14917446</v>
       </c>
-      <c r="KC6" t="n">
+      <c r="KC6" t="inlineStr"/>
+      <c r="KD6" t="n">
         <v>74524</v>
       </c>
-      <c r="KD6" t="n">
+      <c r="KE6" t="n">
         <v>2506099</v>
       </c>
-      <c r="KE6" t="n">
+      <c r="KF6" t="n">
         <v>908000</v>
       </c>
-      <c r="KF6" t="n">
+      <c r="KG6" t="n">
         <v>3000000</v>
-      </c>
-      <c r="KG6" t="n">
-        <v>10284807</v>
       </c>
       <c r="KH6" t="inlineStr"/>
       <c r="KI6" t="inlineStr"/>
-      <c r="KJ6" t="inlineStr"/>
+      <c r="KJ6" t="n">
+        <v>10284807</v>
+      </c>
       <c r="KK6" t="inlineStr"/>
       <c r="KL6" t="n">
         <v>20000000</v>
       </c>
       <c r="KM6" t="n">
-        <v>180277</v>
+        <v>2635014</v>
       </c>
       <c r="KN6" t="n">
-        <v>3233818634</v>
+        <v>84407071</v>
       </c>
       <c r="KO6" t="n">
         <v>16793713</v>
       </c>
       <c r="KP6" t="n">
-        <v>2681181366</v>
+        <v>2184708</v>
       </c>
       <c r="KQ6" t="n">
-        <v>84407071</v>
+        <v>180277</v>
       </c>
       <c r="KR6" t="n">
         <v>23039482</v>
       </c>
       <c r="KS6" t="n">
+        <v>719912190</v>
+      </c>
+      <c r="KT6" t="n">
         <v>574796502</v>
-      </c>
-      <c r="KT6" t="n">
-        <v>719912190</v>
       </c>
       <c r="KU6" t="n">
         <v>5395178</v>
@@ -12266,22 +12266,22 @@
         <v>2093</v>
       </c>
       <c r="OG6" t="n">
+        <v>68050</v>
+      </c>
+      <c r="OH6" t="n">
         <v>1659910</v>
       </c>
-      <c r="OH6" t="n">
+      <c r="OI6" t="n">
         <v>1000000</v>
       </c>
-      <c r="OI6" t="n">
-        <v>282635667</v>
-      </c>
       <c r="OJ6" t="n">
+        <v>1990708</v>
+      </c>
+      <c r="OK6" t="n">
         <v>303826447</v>
       </c>
-      <c r="OK6" t="n">
-        <v>68050</v>
-      </c>
       <c r="OL6" t="n">
-        <v>800000</v>
+        <v>111480417</v>
       </c>
       <c r="OM6" t="n">
         <v>19608308</v>
@@ -12290,7 +12290,7 @@
         <v>570120677</v>
       </c>
       <c r="OO6" t="n">
-        <v>167066</v>
+        <v>150621077</v>
       </c>
       <c r="OP6" t="n">
         <v>272557298</v>
@@ -12320,7 +12320,7 @@
         <v>3387993</v>
       </c>
       <c r="OY6" t="n">
-        <v>7295767</v>
+        <v>300000</v>
       </c>
       <c r="OZ6" t="n">
         <v>166597</v>
@@ -12348,38 +12348,38 @@
         <v>74700651</v>
       </c>
       <c r="PI6" t="n">
-        <v>6223000000</v>
+        <v>362000000</v>
       </c>
       <c r="PJ6" t="n">
+        <v>28232810999</v>
+      </c>
+      <c r="PK6" t="n">
         <v>2762407655</v>
       </c>
-      <c r="PK6" t="n">
-        <v>196368499</v>
-      </c>
       <c r="PL6" t="n">
+        <v>128629397</v>
+      </c>
+      <c r="PM6" t="n">
         <v>888000000</v>
       </c>
-      <c r="PM6" t="inlineStr"/>
-      <c r="PN6" t="n">
-        <v>17523</v>
-      </c>
+      <c r="PN6" t="inlineStr"/>
       <c r="PO6" t="n">
-        <v>1588301999</v>
+        <v>327000000</v>
       </c>
       <c r="PP6" t="n">
-        <v>45971399</v>
+        <v>28876507</v>
       </c>
       <c r="PQ6" t="n">
-        <v>1185000000</v>
+        <v>1252255349</v>
       </c>
       <c r="PR6" t="n">
         <v>485000000</v>
       </c>
       <c r="PS6" t="n">
-        <v>503881955</v>
+        <v>11583711</v>
       </c>
       <c r="PT6" t="n">
-        <v>1520298944</v>
+        <v>1379696202</v>
       </c>
       <c r="PU6" t="n">
         <v>8595000000</v>
@@ -12392,18 +12392,18 @@
         <v>205000000</v>
       </c>
       <c r="PY6" t="n">
-        <v>1350006101</v>
+        <v>639813</v>
       </c>
       <c r="PZ6" t="inlineStr"/>
       <c r="QA6" t="n">
-        <v>446643229</v>
-      </c>
-      <c r="QB6" t="inlineStr"/>
-      <c r="QC6" t="n">
+        <v>280554792</v>
+      </c>
+      <c r="QB6" t="n">
+        <v>301543911</v>
+      </c>
+      <c r="QC6" t="inlineStr"/>
+      <c r="QD6" t="n">
         <v>409211431</v>
-      </c>
-      <c r="QD6" t="n">
-        <v>301543911</v>
       </c>
       <c r="QE6" t="inlineStr"/>
       <c r="QF6" t="n">
@@ -12697,7 +12697,7 @@
         <v>668425</v>
       </c>
       <c r="UV6" t="n">
-        <v>82475364</v>
+        <v>51945023</v>
       </c>
       <c r="UW6" t="n">
         <v>4103158</v>
@@ -13771,7 +13771,7 @@
         <v>2693429</v>
       </c>
       <c r="JD7" t="n">
-        <v>340000000</v>
+        <v>457026623</v>
       </c>
       <c r="JE7" t="inlineStr"/>
       <c r="JF7" t="n">
@@ -13781,7 +13781,7 @@
       <c r="JH7" t="inlineStr"/>
       <c r="JI7" t="inlineStr"/>
       <c r="JJ7" t="n">
-        <v>6496336</v>
+        <v>4134032</v>
       </c>
       <c r="JK7" t="n">
         <v>518000</v>
@@ -13791,25 +13791,25 @@
       </c>
       <c r="JM7" t="inlineStr"/>
       <c r="JN7" t="n">
-        <v>6913523</v>
+        <v>169132489</v>
       </c>
       <c r="JO7" t="n">
         <v>528483</v>
       </c>
       <c r="JP7" t="n">
+        <v>4561342</v>
+      </c>
+      <c r="JQ7" t="n">
         <v>4535015</v>
       </c>
-      <c r="JQ7" t="n">
+      <c r="JR7" t="n">
         <v>5018755</v>
       </c>
-      <c r="JR7" t="n">
+      <c r="JS7" t="n">
         <v>536954038</v>
       </c>
-      <c r="JS7" t="n">
+      <c r="JT7" t="n">
         <v>751645</v>
-      </c>
-      <c r="JT7" t="n">
-        <v>4561342</v>
       </c>
       <c r="JU7" t="n">
         <v>844390</v>
@@ -13829,51 +13829,51 @@
       <c r="KB7" t="n">
         <v>38132985</v>
       </c>
-      <c r="KC7" t="n">
+      <c r="KC7" t="inlineStr"/>
+      <c r="KD7" t="n">
         <v>66682</v>
       </c>
-      <c r="KD7" t="n">
+      <c r="KE7" t="n">
         <v>2297073</v>
       </c>
-      <c r="KE7" t="n">
+      <c r="KF7" t="n">
         <v>682000</v>
       </c>
-      <c r="KF7" t="n">
+      <c r="KG7" t="n">
         <v>7000000</v>
-      </c>
-      <c r="KG7" t="n">
-        <v>25303425</v>
       </c>
       <c r="KH7" t="inlineStr"/>
       <c r="KI7" t="inlineStr"/>
-      <c r="KJ7" t="inlineStr"/>
+      <c r="KJ7" t="n">
+        <v>25303425</v>
+      </c>
       <c r="KK7" t="inlineStr"/>
       <c r="KL7" t="n">
         <v>25732927</v>
       </c>
       <c r="KM7" t="n">
-        <v>1415769</v>
+        <v>33002374</v>
       </c>
       <c r="KN7" t="n">
-        <v>2069247787</v>
+        <v>59915680</v>
       </c>
       <c r="KO7" t="n">
         <v>14267073</v>
       </c>
       <c r="KP7" t="n">
-        <v>185112413</v>
+        <v>8528423</v>
       </c>
       <c r="KQ7" t="n">
-        <v>59915680</v>
+        <v>649933</v>
       </c>
       <c r="KR7" t="n">
         <v>19836316</v>
       </c>
       <c r="KS7" t="n">
-        <v>730870656</v>
+        <v>583655318</v>
       </c>
       <c r="KT7" t="n">
-        <v>583655318</v>
+        <v>18445946</v>
       </c>
       <c r="KU7" t="n">
         <v>5450160</v>
@@ -13892,7 +13892,7 @@
         <v>3574227</v>
       </c>
       <c r="LA7" t="n">
-        <v>249605947</v>
+        <v>544213664</v>
       </c>
       <c r="LB7" t="inlineStr"/>
       <c r="LC7" t="inlineStr"/>
@@ -14120,23 +14120,23 @@
         <v>1711</v>
       </c>
       <c r="OG7" t="n">
+        <v>96841</v>
+      </c>
+      <c r="OH7" t="n">
         <v>357031</v>
       </c>
-      <c r="OH7" t="inlineStr"/>
-      <c r="OI7" t="n">
+      <c r="OI7" t="inlineStr"/>
+      <c r="OJ7" t="n">
         <v>46912183</v>
       </c>
-      <c r="OJ7" t="n">
+      <c r="OK7" t="n">
         <v>205098880</v>
       </c>
-      <c r="OK7" t="n">
-        <v>96841</v>
-      </c>
       <c r="OL7" t="n">
-        <v>88</v>
+        <v>95044</v>
       </c>
       <c r="OM7" t="n">
-        <v>12880421</v>
+        <v>725908</v>
       </c>
       <c r="ON7" t="n">
         <v>432319382</v>
@@ -14145,7 +14145,7 @@
         <v>154698</v>
       </c>
       <c r="OP7" t="n">
-        <v>326097186</v>
+        <v>34277027</v>
       </c>
       <c r="OQ7" t="n">
         <v>14214</v>
@@ -14172,7 +14172,7 @@
         <v>3464987</v>
       </c>
       <c r="OY7" t="n">
-        <v>270000</v>
+        <v>10440619</v>
       </c>
       <c r="OZ7" t="inlineStr"/>
       <c r="PA7" t="n">
@@ -14201,26 +14201,26 @@
         <v>636000000</v>
       </c>
       <c r="PJ7" t="n">
-        <v>2620169917</v>
+        <v>1249665354</v>
       </c>
       <c r="PK7" t="n">
+        <v>108281055</v>
+      </c>
+      <c r="PL7" t="n">
         <v>138053591</v>
       </c>
-      <c r="PL7" t="n">
+      <c r="PM7" t="n">
         <v>914000000</v>
       </c>
-      <c r="PM7" t="inlineStr"/>
-      <c r="PN7" t="n">
-        <v>44674120</v>
-      </c>
+      <c r="PN7" t="inlineStr"/>
       <c r="PO7" t="n">
-        <v>1249665354</v>
+        <v>257000000</v>
       </c>
       <c r="PP7" t="n">
         <v>53620070</v>
       </c>
       <c r="PQ7" t="n">
-        <v>1904000000</v>
+        <v>845440461</v>
       </c>
       <c r="PR7" t="inlineStr"/>
       <c r="PS7" t="n">
@@ -14240,17 +14240,17 @@
         <v>232000000</v>
       </c>
       <c r="PY7" t="n">
-        <v>1743810175</v>
+        <v>4242929753</v>
       </c>
       <c r="PZ7" t="inlineStr"/>
       <c r="QA7" t="n">
         <v>401983720</v>
       </c>
-      <c r="QB7" t="inlineStr"/>
+      <c r="QB7" t="n">
+        <v>117975534</v>
+      </c>
       <c r="QC7" t="inlineStr"/>
-      <c r="QD7" t="n">
-        <v>117975534</v>
-      </c>
+      <c r="QD7" t="inlineStr"/>
       <c r="QE7" t="inlineStr"/>
       <c r="QF7" t="n">
         <v>220378655</v>
@@ -14549,7 +14549,7 @@
         <v>515244</v>
       </c>
       <c r="UV7" t="n">
-        <v>7135693</v>
+        <v>15039177</v>
       </c>
       <c r="UW7" t="n">
         <v>7013497</v>
@@ -15620,7 +15620,7 @@
         <v>5612276</v>
       </c>
       <c r="JC8" t="n">
-        <v>1057296</v>
+        <v>436636</v>
       </c>
       <c r="JD8" t="n">
         <v>1452720</v>
@@ -15643,25 +15643,25 @@
       </c>
       <c r="JM8" t="inlineStr"/>
       <c r="JN8" t="n">
-        <v>69000000</v>
+        <v>8583718</v>
       </c>
       <c r="JO8" t="n">
         <v>496458</v>
       </c>
       <c r="JP8" t="n">
+        <v>5924238</v>
+      </c>
+      <c r="JQ8" t="n">
         <v>1128161</v>
       </c>
-      <c r="JQ8" t="n">
+      <c r="JR8" t="n">
         <v>1305179</v>
       </c>
-      <c r="JR8" t="n">
-        <v>580001071</v>
-      </c>
       <c r="JS8" t="n">
+        <v>189405453</v>
+      </c>
+      <c r="JT8" t="n">
         <v>155117</v>
-      </c>
-      <c r="JT8" t="n">
-        <v>5924238</v>
       </c>
       <c r="JU8" t="n">
         <v>56787</v>
@@ -15681,33 +15681,33 @@
       <c r="KB8" t="n">
         <v>62981536</v>
       </c>
-      <c r="KC8" t="n">
+      <c r="KC8" t="inlineStr"/>
+      <c r="KD8" t="n">
         <v>440779</v>
       </c>
-      <c r="KD8" t="n">
+      <c r="KE8" t="n">
         <v>2216859</v>
       </c>
-      <c r="KE8" t="n">
+      <c r="KF8" t="n">
         <v>947000</v>
       </c>
-      <c r="KF8" t="n">
+      <c r="KG8" t="n">
         <v>12000000</v>
-      </c>
-      <c r="KG8" t="n">
-        <v>47569448</v>
       </c>
       <c r="KH8" t="inlineStr"/>
       <c r="KI8" t="inlineStr"/>
-      <c r="KJ8" t="inlineStr"/>
+      <c r="KJ8" t="n">
+        <v>47569448</v>
+      </c>
       <c r="KK8" t="inlineStr"/>
       <c r="KL8" t="n">
-        <v>24700724</v>
+        <v>45000000</v>
       </c>
       <c r="KM8" t="n">
-        <v>597978</v>
+        <v>841780297</v>
       </c>
       <c r="KN8" t="n">
-        <v>841780297</v>
+        <v>100000000</v>
       </c>
       <c r="KO8" t="n">
         <v>7065701</v>
@@ -15716,16 +15716,16 @@
         <v>6319796</v>
       </c>
       <c r="KQ8" t="n">
-        <v>100000000</v>
+        <v>597978</v>
       </c>
       <c r="KR8" t="n">
         <v>20235953</v>
       </c>
       <c r="KS8" t="n">
+        <v>589227163</v>
+      </c>
+      <c r="KT8" t="n">
         <v>1143993579</v>
-      </c>
-      <c r="KT8" t="n">
-        <v>589227163</v>
       </c>
       <c r="KU8" t="n">
         <v>5455377</v>
@@ -15972,16 +15972,16 @@
         <v>1621</v>
       </c>
       <c r="OG8" t="inlineStr"/>
-      <c r="OH8" t="n">
+      <c r="OH8" t="inlineStr"/>
+      <c r="OI8" t="n">
         <v>78800000</v>
       </c>
-      <c r="OI8" t="n">
+      <c r="OJ8" t="n">
         <v>42971271</v>
       </c>
-      <c r="OJ8" t="n">
+      <c r="OK8" t="n">
         <v>147251978</v>
       </c>
-      <c r="OK8" t="inlineStr"/>
       <c r="OL8" t="n">
         <v>74742601</v>
       </c>
@@ -16049,26 +16049,26 @@
         <v>670000000</v>
       </c>
       <c r="PJ8" t="n">
-        <v>820000000</v>
+        <v>13444869580</v>
       </c>
       <c r="PK8" t="n">
+        <v>1910865047</v>
+      </c>
+      <c r="PL8" t="n">
         <v>248636894</v>
       </c>
-      <c r="PL8" t="n">
+      <c r="PM8" t="n">
         <v>875000000</v>
       </c>
-      <c r="PM8" t="inlineStr"/>
-      <c r="PN8" t="n">
+      <c r="PN8" t="inlineStr"/>
+      <c r="PO8" t="n">
         <v>305000000</v>
-      </c>
-      <c r="PO8" t="n">
-        <v>3233029998</v>
       </c>
       <c r="PP8" t="n">
         <v>51495378</v>
       </c>
       <c r="PQ8" t="n">
-        <v>1139000000</v>
+        <v>641712381</v>
       </c>
       <c r="PR8" t="inlineStr"/>
       <c r="PS8" t="n">
@@ -16081,24 +16081,24 @@
         <v>9520000000</v>
       </c>
       <c r="PV8" t="n">
-        <v>14617684</v>
+        <v>30307331</v>
       </c>
       <c r="PW8" t="inlineStr"/>
       <c r="PX8" t="n">
         <v>190000000</v>
       </c>
       <c r="PY8" t="n">
-        <v>2082000000</v>
+        <v>1888630852</v>
       </c>
       <c r="PZ8" t="inlineStr"/>
       <c r="QA8" t="n">
         <v>443431419</v>
       </c>
-      <c r="QB8" t="inlineStr"/>
+      <c r="QB8" t="n">
+        <v>206397219</v>
+      </c>
       <c r="QC8" t="inlineStr"/>
-      <c r="QD8" t="n">
-        <v>206397219</v>
-      </c>
+      <c r="QD8" t="inlineStr"/>
       <c r="QE8" t="inlineStr"/>
       <c r="QF8" t="n">
         <v>383488095</v>
@@ -16419,7 +16419,7 @@
         <v>400141</v>
       </c>
       <c r="UV8" t="n">
-        <v>114903</v>
+        <v>48059551</v>
       </c>
       <c r="UW8" t="n">
         <v>10651817</v>
@@ -17493,7 +17493,7 @@
         <v>135511</v>
       </c>
       <c r="JD9" t="n">
-        <v>452207027</v>
+        <v>178647868</v>
       </c>
       <c r="JE9" t="inlineStr"/>
       <c r="JF9" t="n">
@@ -17519,22 +17519,22 @@
         <v>456579</v>
       </c>
       <c r="JP9" t="n">
+        <v>10268345</v>
+      </c>
+      <c r="JQ9" t="n">
         <v>405620</v>
       </c>
-      <c r="JQ9" t="n">
+      <c r="JR9" t="n">
         <v>737972</v>
       </c>
-      <c r="JR9" t="n">
+      <c r="JS9" t="n">
         <v>643275026</v>
       </c>
-      <c r="JS9" t="n">
-        <v>163231</v>
-      </c>
       <c r="JT9" t="n">
-        <v>10268345</v>
+        <v>96619</v>
       </c>
       <c r="JU9" t="n">
-        <v>1887680</v>
+        <v>49190</v>
       </c>
       <c r="JV9" t="n">
         <v>43368038</v>
@@ -17551,51 +17551,51 @@
       <c r="KB9" t="n">
         <v>65689351</v>
       </c>
-      <c r="KC9" t="n">
+      <c r="KC9" t="inlineStr"/>
+      <c r="KD9" t="n">
         <v>31151</v>
       </c>
-      <c r="KD9" t="n">
+      <c r="KE9" t="n">
         <v>1012157</v>
       </c>
-      <c r="KE9" t="n">
+      <c r="KF9" t="n">
         <v>1010000</v>
       </c>
-      <c r="KF9" t="n">
+      <c r="KG9" t="n">
         <v>16000000</v>
-      </c>
-      <c r="KG9" t="n">
-        <v>45274039</v>
       </c>
       <c r="KH9" t="inlineStr"/>
       <c r="KI9" t="inlineStr"/>
-      <c r="KJ9" t="inlineStr"/>
+      <c r="KJ9" t="n">
+        <v>45274039</v>
+      </c>
       <c r="KK9" t="inlineStr"/>
       <c r="KL9" t="n">
-        <v>21474580</v>
+        <v>115962731</v>
       </c>
       <c r="KM9" t="n">
-        <v>5087817</v>
+        <v>831321912</v>
       </c>
       <c r="KN9" t="n">
-        <v>360239495</v>
+        <v>125000000</v>
       </c>
       <c r="KO9" t="n">
         <v>5640672</v>
       </c>
       <c r="KP9" t="n">
-        <v>289760505</v>
+        <v>8522131</v>
       </c>
       <c r="KQ9" t="n">
-        <v>125000000</v>
+        <v>5087817</v>
       </c>
       <c r="KR9" t="n">
         <v>23338648</v>
       </c>
       <c r="KS9" t="n">
+        <v>600497191</v>
+      </c>
+      <c r="KT9" t="n">
         <v>1078476740</v>
-      </c>
-      <c r="KT9" t="n">
-        <v>600497191</v>
       </c>
       <c r="KU9" t="n">
         <v>5861163</v>
@@ -17840,16 +17840,16 @@
         <v>1669</v>
       </c>
       <c r="OG9" t="inlineStr"/>
-      <c r="OH9" t="n">
+      <c r="OH9" t="inlineStr"/>
+      <c r="OI9" t="n">
         <v>78800000</v>
       </c>
-      <c r="OI9" t="n">
+      <c r="OJ9" t="n">
         <v>40440704</v>
       </c>
-      <c r="OJ9" t="n">
+      <c r="OK9" t="n">
         <v>98102051</v>
       </c>
-      <c r="OK9" t="inlineStr"/>
       <c r="OL9" t="n">
         <v>84138617</v>
       </c>
@@ -17860,13 +17860,13 @@
         <v>337201355</v>
       </c>
       <c r="OO9" t="n">
-        <v>85551738</v>
+        <v>110650</v>
       </c>
       <c r="OP9" t="n">
         <v>330302414</v>
       </c>
       <c r="OQ9" t="n">
-        <v>154960002</v>
+        <v>7220</v>
       </c>
       <c r="OR9" t="n">
         <v>8662775</v>
@@ -17919,20 +17919,20 @@
         <v>800000000</v>
       </c>
       <c r="PJ9" t="n">
-        <v>360000000</v>
+        <v>2686966392</v>
       </c>
       <c r="PK9" t="n">
+        <v>160632756</v>
+      </c>
+      <c r="PL9" t="n">
         <v>640646302</v>
       </c>
-      <c r="PL9" t="n">
+      <c r="PM9" t="n">
         <v>802000000</v>
       </c>
-      <c r="PM9" t="inlineStr"/>
-      <c r="PN9" t="n">
+      <c r="PN9" t="inlineStr"/>
+      <c r="PO9" t="n">
         <v>320000000</v>
-      </c>
-      <c r="PO9" t="n">
-        <v>2686966392</v>
       </c>
       <c r="PP9" t="n">
         <v>45613597</v>
@@ -17944,7 +17944,7 @@
         <v>919655988</v>
       </c>
       <c r="PU9" t="n">
-        <v>10142000000</v>
+        <v>3384000000</v>
       </c>
       <c r="PV9" t="inlineStr"/>
       <c r="PW9" t="inlineStr"/>
@@ -17956,13 +17956,13 @@
       </c>
       <c r="PZ9" t="inlineStr"/>
       <c r="QA9" t="n">
-        <v>361806010</v>
-      </c>
-      <c r="QB9" t="inlineStr"/>
+        <v>370540003</v>
+      </c>
+      <c r="QB9" t="n">
+        <v>450882608</v>
+      </c>
       <c r="QC9" t="inlineStr"/>
-      <c r="QD9" t="n">
-        <v>450882608</v>
-      </c>
+      <c r="QD9" t="inlineStr"/>
       <c r="QE9" t="inlineStr"/>
       <c r="QF9" t="n">
         <v>824373607</v>
@@ -18271,7 +18271,7 @@
         <v>431939</v>
       </c>
       <c r="UV9" t="n">
-        <v>85490263</v>
+        <v>150927031</v>
       </c>
       <c r="UW9" t="n">
         <v>17157694</v>
@@ -19354,35 +19354,35 @@
         <v>2550152</v>
       </c>
       <c r="JK10" t="n">
-        <v>17010000</v>
+        <v>83835000</v>
       </c>
       <c r="JL10" t="n">
         <v>414347</v>
       </c>
       <c r="JM10" t="inlineStr"/>
       <c r="JN10" t="n">
-        <v>90000000</v>
+        <v>13488938</v>
       </c>
       <c r="JO10" t="n">
-        <v>266347</v>
+        <v>285935</v>
       </c>
       <c r="JP10" t="n">
+        <v>13351907</v>
+      </c>
+      <c r="JQ10" t="n">
         <v>579054</v>
       </c>
-      <c r="JQ10" t="n">
+      <c r="JR10" t="n">
         <v>2789743</v>
       </c>
-      <c r="JR10" t="n">
+      <c r="JS10" t="n">
         <v>716878580</v>
       </c>
-      <c r="JS10" t="n">
+      <c r="JT10" t="n">
         <v>10644811</v>
       </c>
-      <c r="JT10" t="n">
-        <v>13351907</v>
-      </c>
       <c r="JU10" t="n">
-        <v>365185</v>
+        <v>6729847</v>
       </c>
       <c r="JV10" t="n">
         <v>29173065</v>
@@ -19399,51 +19399,51 @@
       <c r="KB10" t="n">
         <v>92265876</v>
       </c>
-      <c r="KC10" t="n">
+      <c r="KC10" t="inlineStr"/>
+      <c r="KD10" t="n">
         <v>30342</v>
       </c>
-      <c r="KD10" t="n">
+      <c r="KE10" t="n">
         <v>1023891</v>
       </c>
-      <c r="KE10" t="n">
+      <c r="KF10" t="n">
         <v>998000</v>
       </c>
-      <c r="KF10" t="n">
+      <c r="KG10" t="n">
         <v>32000000</v>
-      </c>
-      <c r="KG10" t="n">
-        <v>59213459</v>
       </c>
       <c r="KH10" t="inlineStr"/>
       <c r="KI10" t="inlineStr"/>
-      <c r="KJ10" t="inlineStr"/>
+      <c r="KJ10" t="n">
+        <v>59213459</v>
+      </c>
       <c r="KK10" t="inlineStr"/>
       <c r="KL10" t="n">
-        <v>119089806</v>
+        <v>35000000</v>
       </c>
       <c r="KM10" t="n">
-        <v>409256</v>
+        <v>819295750</v>
       </c>
       <c r="KN10" t="n">
-        <v>819295750</v>
+        <v>145000000</v>
       </c>
       <c r="KO10" t="n">
-        <v>4714132</v>
+        <v>22981392</v>
       </c>
       <c r="KP10" t="n">
-        <v>3988600</v>
+        <v>7956265</v>
       </c>
       <c r="KQ10" t="n">
-        <v>145000000</v>
+        <v>818512</v>
       </c>
       <c r="KR10" t="n">
         <v>22138475</v>
       </c>
       <c r="KS10" t="n">
+        <v>536359564</v>
+      </c>
+      <c r="KT10" t="n">
         <v>1067383875</v>
-      </c>
-      <c r="KT10" t="n">
-        <v>536359564</v>
       </c>
       <c r="KU10" t="n">
         <v>5904111</v>
@@ -19682,18 +19682,18 @@
         <v>1526</v>
       </c>
       <c r="OG10" t="inlineStr"/>
-      <c r="OH10" t="n">
+      <c r="OH10" t="inlineStr"/>
+      <c r="OI10" t="n">
         <v>78800000</v>
       </c>
-      <c r="OI10" t="n">
+      <c r="OJ10" t="n">
         <v>44179824</v>
       </c>
-      <c r="OJ10" t="n">
+      <c r="OK10" t="n">
         <v>90662127</v>
       </c>
-      <c r="OK10" t="inlineStr"/>
       <c r="OL10" t="n">
-        <v>91315606</v>
+        <v>77599532</v>
       </c>
       <c r="OM10" t="n">
         <v>5019968</v>
@@ -19705,7 +19705,7 @@
         <v>107369</v>
       </c>
       <c r="OP10" t="n">
-        <v>5319116</v>
+        <v>12150074</v>
       </c>
       <c r="OQ10" t="n">
         <v>4936</v>
@@ -19759,20 +19759,20 @@
         <v>4806000000</v>
       </c>
       <c r="PJ10" t="n">
-        <v>114962095</v>
+        <v>3071008937</v>
       </c>
       <c r="PK10" t="n">
+        <v>227682625</v>
+      </c>
+      <c r="PL10" t="n">
         <v>222712615</v>
       </c>
-      <c r="PL10" t="n">
+      <c r="PM10" t="n">
         <v>705000000</v>
       </c>
-      <c r="PM10" t="inlineStr"/>
-      <c r="PN10" t="n">
+      <c r="PN10" t="inlineStr"/>
+      <c r="PO10" t="n">
         <v>29024391</v>
-      </c>
-      <c r="PO10" t="n">
-        <v>2704000000</v>
       </c>
       <c r="PP10" t="n">
         <v>21622077</v>
@@ -19784,7 +19784,7 @@
         <v>926982931</v>
       </c>
       <c r="PU10" t="n">
-        <v>3073000000</v>
+        <v>9867000000</v>
       </c>
       <c r="PV10" t="inlineStr"/>
       <c r="PW10" t="inlineStr"/>
@@ -19792,17 +19792,17 @@
         <v>594000000</v>
       </c>
       <c r="PY10" t="n">
-        <v>1381465695</v>
+        <v>712000000</v>
       </c>
       <c r="PZ10" t="inlineStr"/>
       <c r="QA10" t="n">
-        <v>174664029</v>
-      </c>
-      <c r="QB10" t="inlineStr"/>
+        <v>366631296</v>
+      </c>
+      <c r="QB10" t="n">
+        <v>1699648043</v>
+      </c>
       <c r="QC10" t="inlineStr"/>
-      <c r="QD10" t="n">
-        <v>1699648043</v>
-      </c>
+      <c r="QD10" t="inlineStr"/>
       <c r="QE10" t="inlineStr"/>
       <c r="QF10" t="n">
         <v>3019904213</v>
@@ -20101,7 +20101,7 @@
         <v>1304428</v>
       </c>
       <c r="UV10" t="n">
-        <v>65735244</v>
+        <v>557678384</v>
       </c>
       <c r="UW10" t="n">
         <v>24148390</v>
@@ -21181,11 +21181,11 @@
         <v>1710297</v>
       </c>
       <c r="JD11" t="n">
-        <v>121909</v>
+        <v>658000000</v>
       </c>
       <c r="JE11" t="inlineStr"/>
       <c r="JF11" t="n">
-        <v>7255745</v>
+        <v>99968047</v>
       </c>
       <c r="JG11" t="inlineStr"/>
       <c r="JH11" t="inlineStr"/>
@@ -21201,31 +21201,31 @@
       </c>
       <c r="JM11" t="inlineStr"/>
       <c r="JN11" t="n">
-        <v>107000000</v>
+        <v>17685496</v>
       </c>
       <c r="JO11" t="n">
         <v>550409</v>
       </c>
       <c r="JP11" t="n">
+        <v>5577255</v>
+      </c>
+      <c r="JQ11" t="n">
         <v>1449950</v>
       </c>
-      <c r="JQ11" t="n">
+      <c r="JR11" t="n">
         <v>519088</v>
       </c>
-      <c r="JR11" t="n">
+      <c r="JS11" t="n">
         <v>745507162</v>
       </c>
-      <c r="JS11" t="n">
-        <v>1564196</v>
-      </c>
       <c r="JT11" t="n">
-        <v>5577255</v>
+        <v>283253</v>
       </c>
       <c r="JU11" t="n">
         <v>1804033</v>
       </c>
       <c r="JV11" t="n">
-        <v>13575046</v>
+        <v>28414904</v>
       </c>
       <c r="JW11" t="inlineStr"/>
       <c r="JX11" t="n">
@@ -21241,35 +21241,35 @@
       <c r="KB11" t="n">
         <v>90363325</v>
       </c>
-      <c r="KC11" t="n">
+      <c r="KC11" t="inlineStr"/>
+      <c r="KD11" t="n">
         <v>29564</v>
       </c>
-      <c r="KD11" t="n">
+      <c r="KE11" t="n">
         <v>997638</v>
       </c>
-      <c r="KE11" t="n">
+      <c r="KF11" t="n">
         <v>1603000</v>
       </c>
-      <c r="KF11" t="n">
+      <c r="KG11" t="n">
         <v>22000000</v>
-      </c>
-      <c r="KG11" t="n">
-        <v>48062859</v>
       </c>
       <c r="KH11" t="n">
         <v>36079290</v>
       </c>
       <c r="KI11" t="inlineStr"/>
-      <c r="KJ11" t="inlineStr"/>
+      <c r="KJ11" t="n">
+        <v>48062859</v>
+      </c>
       <c r="KK11" t="inlineStr"/>
       <c r="KL11" t="n">
         <v>30000000</v>
       </c>
       <c r="KM11" t="n">
-        <v>10156860</v>
+        <v>1023856471</v>
       </c>
       <c r="KN11" t="n">
-        <v>84317592</v>
+        <v>150000000</v>
       </c>
       <c r="KO11" t="n">
         <v>3597594</v>
@@ -21278,16 +21278,16 @@
         <v>7648089</v>
       </c>
       <c r="KQ11" t="n">
-        <v>150000000</v>
+        <v>10156860</v>
       </c>
       <c r="KR11" t="n">
         <v>20223733</v>
       </c>
       <c r="KS11" t="n">
-        <v>24876061</v>
+        <v>557215365</v>
       </c>
       <c r="KT11" t="n">
-        <v>557215365</v>
+        <v>1064310809</v>
       </c>
       <c r="KU11" t="n">
         <v>5926469</v>
@@ -21516,21 +21516,21 @@
         <v>1681</v>
       </c>
       <c r="OG11" t="inlineStr"/>
-      <c r="OH11" t="n">
+      <c r="OH11" t="inlineStr"/>
+      <c r="OI11" t="n">
         <v>78800000</v>
       </c>
-      <c r="OI11" t="n">
+      <c r="OJ11" t="n">
         <v>47244381</v>
       </c>
-      <c r="OJ11" t="n">
+      <c r="OK11" t="n">
         <v>54586293</v>
       </c>
-      <c r="OK11" t="inlineStr"/>
       <c r="OL11" t="n">
-        <v>193392</v>
+        <v>86582069</v>
       </c>
       <c r="OM11" t="n">
-        <v>264871</v>
+        <v>10289523</v>
       </c>
       <c r="ON11" t="n">
         <v>316442620</v>
@@ -21539,7 +21539,7 @@
         <v>72569</v>
       </c>
       <c r="OP11" t="n">
-        <v>933545505</v>
+        <v>12906678</v>
       </c>
       <c r="OQ11" t="n">
         <v>4998</v>
@@ -21593,20 +21593,20 @@
         <v>4482000000</v>
       </c>
       <c r="PJ11" t="n">
+        <v>44324530105</v>
+      </c>
+      <c r="PK11" t="n">
         <v>128645744</v>
       </c>
-      <c r="PK11" t="n">
+      <c r="PL11" t="n">
         <v>328194878</v>
       </c>
-      <c r="PL11" t="n">
+      <c r="PM11" t="n">
         <v>609000000</v>
       </c>
-      <c r="PM11" t="inlineStr"/>
-      <c r="PN11" t="n">
+      <c r="PN11" t="inlineStr"/>
+      <c r="PO11" t="n">
         <v>116038817</v>
-      </c>
-      <c r="PO11" t="n">
-        <v>2924952124</v>
       </c>
       <c r="PP11" t="n">
         <v>24732256</v>
@@ -21632,11 +21632,11 @@
       <c r="QA11" t="n">
         <v>192966990</v>
       </c>
-      <c r="QB11" t="inlineStr"/>
+      <c r="QB11" t="n">
+        <v>1728956900</v>
+      </c>
       <c r="QC11" t="inlineStr"/>
-      <c r="QD11" t="n">
-        <v>1728956900</v>
-      </c>
+      <c r="QD11" t="inlineStr"/>
       <c r="QE11" t="inlineStr"/>
       <c r="QF11" t="n">
         <v>2997535906</v>
@@ -21943,7 +21943,7 @@
         <v>2763368</v>
       </c>
       <c r="UV11" t="n">
-        <v>72239684</v>
+        <v>21761757</v>
       </c>
       <c r="UW11" t="n">
         <v>23971742</v>
@@ -23009,7 +23009,7 @@
         <v>1266161</v>
       </c>
       <c r="JD12" t="n">
-        <v>42292948</v>
+        <v>109626</v>
       </c>
       <c r="JE12" t="inlineStr"/>
       <c r="JF12" t="n">
@@ -23022,7 +23022,7 @@
         <v>6286302</v>
       </c>
       <c r="JK12" t="n">
-        <v>101181000</v>
+        <v>2718790</v>
       </c>
       <c r="JL12" t="n">
         <v>371399</v>
@@ -23034,19 +23034,19 @@
       <c r="JO12" t="n">
         <v>524159</v>
       </c>
-      <c r="JP12" t="n">
+      <c r="JP12" t="inlineStr"/>
+      <c r="JQ12" t="n">
         <v>896240</v>
       </c>
-      <c r="JQ12" t="n">
+      <c r="JR12" t="n">
         <v>5552620</v>
       </c>
-      <c r="JR12" t="n">
+      <c r="JS12" t="n">
         <v>1641165</v>
       </c>
-      <c r="JS12" t="n">
+      <c r="JT12" t="n">
         <v>1326762</v>
       </c>
-      <c r="JT12" t="inlineStr"/>
       <c r="JU12" t="n">
         <v>1731172</v>
       </c>
@@ -23061,19 +23061,19 @@
       <c r="JZ12" t="inlineStr"/>
       <c r="KA12" t="inlineStr"/>
       <c r="KB12" t="inlineStr"/>
-      <c r="KC12" t="n">
+      <c r="KC12" t="inlineStr"/>
+      <c r="KD12" t="n">
         <v>22501</v>
       </c>
-      <c r="KD12" t="n">
+      <c r="KE12" t="n">
         <v>759268</v>
       </c>
-      <c r="KE12" t="n">
+      <c r="KF12" t="n">
         <v>1213000</v>
       </c>
-      <c r="KF12" t="n">
+      <c r="KG12" t="n">
         <v>13000000</v>
       </c>
-      <c r="KG12" t="inlineStr"/>
       <c r="KH12" t="n">
         <v>20164169</v>
       </c>
@@ -23081,31 +23081,31 @@
       <c r="KJ12" t="inlineStr"/>
       <c r="KK12" t="inlineStr"/>
       <c r="KL12" t="n">
-        <v>30000000</v>
+        <v>201812529</v>
       </c>
       <c r="KM12" t="n">
+        <v>698113867</v>
+      </c>
+      <c r="KN12" t="n">
+        <v>170000000</v>
+      </c>
+      <c r="KO12" t="n">
+        <v>3373539</v>
+      </c>
+      <c r="KP12" t="n">
+        <v>501886133</v>
+      </c>
+      <c r="KQ12" t="n">
         <v>3597221</v>
-      </c>
-      <c r="KN12" t="n">
-        <v>698113867</v>
-      </c>
-      <c r="KO12" t="n">
-        <v>2146798</v>
-      </c>
-      <c r="KP12" t="n">
-        <v>8010115</v>
-      </c>
-      <c r="KQ12" t="n">
-        <v>170000000</v>
       </c>
       <c r="KR12" t="n">
         <v>18487944</v>
       </c>
       <c r="KS12" t="n">
+        <v>478094906</v>
+      </c>
+      <c r="KT12" t="n">
         <v>760634526</v>
-      </c>
-      <c r="KT12" t="n">
-        <v>478094906</v>
       </c>
       <c r="KU12" t="n">
         <v>2397789</v>
@@ -23332,18 +23332,18 @@
         <v>1879</v>
       </c>
       <c r="OG12" t="inlineStr"/>
-      <c r="OH12" t="n">
+      <c r="OH12" t="inlineStr"/>
+      <c r="OI12" t="n">
         <v>78800000</v>
       </c>
-      <c r="OI12" t="n">
+      <c r="OJ12" t="n">
         <v>71611237</v>
       </c>
-      <c r="OJ12" t="n">
+      <c r="OK12" t="n">
         <v>35450354</v>
       </c>
-      <c r="OK12" t="inlineStr"/>
       <c r="OL12" t="n">
-        <v>89971099</v>
+        <v>2197073</v>
       </c>
       <c r="OM12" t="n">
         <v>9283423</v>
@@ -23355,10 +23355,10 @@
         <v>57662</v>
       </c>
       <c r="OP12" t="n">
-        <v>13319818</v>
+        <v>298366069</v>
       </c>
       <c r="OQ12" t="n">
-        <v>5574</v>
+        <v>260882805</v>
       </c>
       <c r="OR12" t="n">
         <v>35919992</v>
@@ -23402,26 +23402,26 @@
         <v>1233542659</v>
       </c>
       <c r="PI12" t="n">
-        <v>227000000</v>
+        <v>4194000000</v>
       </c>
       <c r="PJ12" t="n">
-        <v>416200526</v>
+        <v>2043069581</v>
       </c>
       <c r="PK12" t="n">
+        <v>69274388</v>
+      </c>
+      <c r="PL12" t="n">
         <v>382158905</v>
       </c>
-      <c r="PL12" t="n">
+      <c r="PM12" t="n">
         <v>508000000</v>
       </c>
-      <c r="PM12" t="inlineStr"/>
-      <c r="PN12" t="n">
+      <c r="PN12" t="inlineStr"/>
+      <c r="PO12" t="n">
         <v>24500878</v>
       </c>
-      <c r="PO12" t="n">
-        <v>2043069581</v>
-      </c>
       <c r="PP12" t="n">
-        <v>30881265</v>
+        <v>42846655</v>
       </c>
       <c r="PQ12" t="inlineStr"/>
       <c r="PR12" t="inlineStr"/>
@@ -23444,11 +23444,11 @@
       <c r="QA12" t="n">
         <v>244749664</v>
       </c>
-      <c r="QB12" t="inlineStr"/>
+      <c r="QB12" t="n">
+        <v>1749194941</v>
+      </c>
       <c r="QC12" t="inlineStr"/>
-      <c r="QD12" t="n">
-        <v>1749194941</v>
-      </c>
+      <c r="QD12" t="inlineStr"/>
       <c r="QE12" t="inlineStr"/>
       <c r="QF12" t="n">
         <v>2999062189</v>
@@ -23753,10 +23753,10 @@
         <v>3657673</v>
       </c>
       <c r="UV12" t="n">
-        <v>172363</v>
+        <v>17225982</v>
       </c>
       <c r="UW12" t="n">
-        <v>25786070</v>
+        <v>130000000</v>
       </c>
       <c r="UX12" t="n">
         <v>1173600000</v>
@@ -24822,14 +24822,14 @@
         <v>5559079</v>
       </c>
       <c r="JC13" t="n">
-        <v>41919451</v>
+        <v>2919721</v>
       </c>
       <c r="JD13" t="n">
         <v>54804077</v>
       </c>
       <c r="JE13" t="inlineStr"/>
       <c r="JF13" t="n">
-        <v>1000000</v>
+        <v>4656981</v>
       </c>
       <c r="JG13" t="inlineStr"/>
       <c r="JH13" t="inlineStr"/>
@@ -24845,24 +24845,24 @@
       </c>
       <c r="JM13" t="inlineStr"/>
       <c r="JN13" t="n">
-        <v>1000000</v>
+        <v>121000000</v>
       </c>
       <c r="JO13" t="n">
         <v>836162</v>
       </c>
-      <c r="JP13" t="n">
+      <c r="JP13" t="inlineStr"/>
+      <c r="JQ13" t="n">
         <v>8080143</v>
       </c>
-      <c r="JQ13" t="n">
+      <c r="JR13" t="n">
         <v>14269587</v>
       </c>
-      <c r="JR13" t="n">
+      <c r="JS13" t="n">
         <v>2121397</v>
       </c>
-      <c r="JS13" t="n">
+      <c r="JT13" t="n">
         <v>1051254</v>
       </c>
-      <c r="JT13" t="inlineStr"/>
       <c r="JU13" t="n">
         <v>335037</v>
       </c>
@@ -24877,19 +24877,19 @@
       <c r="JZ13" t="inlineStr"/>
       <c r="KA13" t="inlineStr"/>
       <c r="KB13" t="inlineStr"/>
-      <c r="KC13" t="n">
+      <c r="KC13" t="inlineStr"/>
+      <c r="KD13" t="n">
         <v>28500</v>
       </c>
-      <c r="KD13" t="n">
+      <c r="KE13" t="n">
         <v>961740</v>
       </c>
-      <c r="KE13" t="n">
+      <c r="KF13" t="n">
         <v>1197000</v>
       </c>
-      <c r="KF13" t="n">
+      <c r="KG13" t="n">
         <v>14000000</v>
       </c>
-      <c r="KG13" t="inlineStr"/>
       <c r="KH13" t="inlineStr"/>
       <c r="KI13" t="inlineStr"/>
       <c r="KJ13" t="inlineStr"/>
@@ -24898,10 +24898,10 @@
         <v>40000000</v>
       </c>
       <c r="KM13" t="n">
-        <v>14388885</v>
+        <v>450008200</v>
       </c>
       <c r="KN13" t="n">
-        <v>450008200</v>
+        <v>150000000</v>
       </c>
       <c r="KO13" t="n">
         <v>3774967</v>
@@ -24910,16 +24910,16 @@
         <v>7977201</v>
       </c>
       <c r="KQ13" t="n">
-        <v>150000000</v>
+        <v>14388885</v>
       </c>
       <c r="KR13" t="n">
         <v>16620704</v>
       </c>
       <c r="KS13" t="n">
+        <v>548171630</v>
+      </c>
+      <c r="KT13" t="n">
         <v>491104925</v>
-      </c>
-      <c r="KT13" t="n">
-        <v>548171630</v>
       </c>
       <c r="KU13" t="inlineStr"/>
       <c r="KV13" t="inlineStr"/>
@@ -25142,18 +25142,18 @@
         <v>2057</v>
       </c>
       <c r="OG13" t="inlineStr"/>
-      <c r="OH13" t="n">
+      <c r="OH13" t="inlineStr"/>
+      <c r="OI13" t="n">
         <v>78800000</v>
       </c>
-      <c r="OI13" t="n">
+      <c r="OJ13" t="n">
         <v>75534467</v>
       </c>
-      <c r="OJ13" t="n">
+      <c r="OK13" t="n">
         <v>68270</v>
       </c>
-      <c r="OK13" t="inlineStr"/>
       <c r="OL13" t="n">
-        <v>94031581</v>
+        <v>134828517</v>
       </c>
       <c r="OM13" t="n">
         <v>10036229</v>
@@ -25183,7 +25183,7 @@
         <v>54144368</v>
       </c>
       <c r="OV13" t="n">
-        <v>608000000</v>
+        <v>29100000</v>
       </c>
       <c r="OW13" t="n">
         <v>959746057</v>
@@ -25212,25 +25212,25 @@
         <v>14727742195</v>
       </c>
       <c r="PI13" t="n">
-        <v>61095000000</v>
+        <v>25912000000</v>
       </c>
       <c r="PJ13" t="n">
+        <v>2562985031</v>
+      </c>
+      <c r="PK13" t="n">
         <v>61896182</v>
       </c>
-      <c r="PK13" t="n">
+      <c r="PL13" t="n">
         <v>357783512</v>
       </c>
-      <c r="PL13" t="n">
+      <c r="PM13" t="n">
         <v>410000000</v>
       </c>
-      <c r="PM13" t="n">
+      <c r="PN13" t="n">
         <v>4611803055</v>
       </c>
-      <c r="PN13" t="n">
+      <c r="PO13" t="n">
         <v>7925605</v>
-      </c>
-      <c r="PO13" t="n">
-        <v>2562985031</v>
       </c>
       <c r="PP13" t="n">
         <v>33248475</v>
@@ -25239,7 +25239,7 @@
       <c r="PR13" t="inlineStr"/>
       <c r="PS13" t="inlineStr"/>
       <c r="PT13" t="n">
-        <v>830022540</v>
+        <v>619344501</v>
       </c>
       <c r="PU13" t="n">
         <v>8975000000</v>
@@ -25250,17 +25250,17 @@
         <v>401000000</v>
       </c>
       <c r="PY13" t="n">
-        <v>14077952041</v>
+        <v>696091382</v>
       </c>
       <c r="PZ13" t="inlineStr"/>
       <c r="QA13" t="n">
         <v>240407023</v>
       </c>
-      <c r="QB13" t="inlineStr"/>
+      <c r="QB13" t="n">
+        <v>1818815805</v>
+      </c>
       <c r="QC13" t="inlineStr"/>
-      <c r="QD13" t="n">
-        <v>1818815805</v>
-      </c>
+      <c r="QD13" t="inlineStr"/>
       <c r="QE13" t="n">
         <v>1582502709</v>
       </c>
@@ -25583,7 +25583,7 @@
         <v>41874294</v>
       </c>
       <c r="UX13" t="n">
-        <v>1000000000</v>
+        <v>101803811</v>
       </c>
       <c r="UY13" t="inlineStr"/>
       <c r="UZ13" t="inlineStr"/>
@@ -26685,7 +26685,7 @@
         <v>2890524</v>
       </c>
       <c r="JD14" t="n">
-        <v>1247000000</v>
+        <v>153000000</v>
       </c>
       <c r="JE14" t="inlineStr"/>
       <c r="JF14" t="n">
@@ -26712,21 +26712,21 @@
         <v>1055246824</v>
       </c>
       <c r="JO14" t="n">
-        <v>432059</v>
-      </c>
-      <c r="JP14" t="n">
+        <v>974940</v>
+      </c>
+      <c r="JP14" t="inlineStr"/>
+      <c r="JQ14" t="n">
         <v>7999342</v>
       </c>
-      <c r="JQ14" t="n">
+      <c r="JR14" t="n">
         <v>14126891</v>
       </c>
-      <c r="JR14" t="n">
+      <c r="JS14" t="n">
         <v>77816182</v>
       </c>
-      <c r="JS14" t="n">
+      <c r="JT14" t="n">
         <v>1040741</v>
       </c>
-      <c r="JT14" t="inlineStr"/>
       <c r="JU14" t="n">
         <v>331686</v>
       </c>
@@ -26744,25 +26744,25 @@
       <c r="KA14" t="inlineStr"/>
       <c r="KB14" t="inlineStr"/>
       <c r="KC14" t="n">
+        <v>1355200000</v>
+      </c>
+      <c r="KD14" t="n">
         <v>28627</v>
       </c>
-      <c r="KD14" t="n">
+      <c r="KE14" t="n">
         <v>824444</v>
       </c>
-      <c r="KE14" t="n">
+      <c r="KF14" t="n">
         <v>1197000</v>
       </c>
-      <c r="KF14" t="n">
+      <c r="KG14" t="n">
         <v>14000000</v>
       </c>
-      <c r="KG14" t="inlineStr"/>
       <c r="KH14" t="inlineStr"/>
       <c r="KI14" t="n">
         <v>5601597707</v>
       </c>
-      <c r="KJ14" t="n">
-        <v>1355200000</v>
-      </c>
+      <c r="KJ14" t="inlineStr"/>
       <c r="KK14" t="n">
         <v>38645331</v>
       </c>
@@ -26770,10 +26770,10 @@
         <v>16643085200</v>
       </c>
       <c r="KM14" t="n">
-        <v>35972212</v>
+        <v>577151901</v>
       </c>
       <c r="KN14" t="n">
-        <v>577151901</v>
+        <v>10913460</v>
       </c>
       <c r="KO14" t="n">
         <v>4089547</v>
@@ -26782,16 +26782,16 @@
         <v>9104019</v>
       </c>
       <c r="KQ14" t="n">
-        <v>10913460</v>
+        <v>35972212</v>
       </c>
       <c r="KR14" t="n">
         <v>29405861</v>
       </c>
       <c r="KS14" t="n">
+        <v>1021339281</v>
+      </c>
+      <c r="KT14" t="n">
         <v>908974906</v>
-      </c>
-      <c r="KT14" t="n">
-        <v>2575525998</v>
       </c>
       <c r="KU14" t="n">
         <v>24861279</v>
@@ -26802,7 +26802,7 @@
         <v>1834109298</v>
       </c>
       <c r="KY14" t="n">
-        <v>61222160</v>
+        <v>4620785</v>
       </c>
       <c r="KZ14" t="inlineStr"/>
       <c r="LA14" t="n">
@@ -27026,16 +27026,16 @@
         <v>2057</v>
       </c>
       <c r="OG14" t="inlineStr"/>
-      <c r="OH14" t="n">
+      <c r="OH14" t="inlineStr"/>
+      <c r="OI14" t="n">
         <v>78800000</v>
       </c>
-      <c r="OI14" t="n">
+      <c r="OJ14" t="n">
         <v>55090175</v>
       </c>
-      <c r="OJ14" t="n">
+      <c r="OK14" t="n">
         <v>68270</v>
       </c>
-      <c r="OK14" t="inlineStr"/>
       <c r="OL14" t="n">
         <v>7618683</v>
       </c>
@@ -27049,7 +27049,7 @@
         <v>56892</v>
       </c>
       <c r="OP14" t="n">
-        <v>1106655</v>
+        <v>36548968</v>
       </c>
       <c r="OQ14" t="n">
         <v>8427</v>
@@ -27072,7 +27072,7 @@
       </c>
       <c r="OX14" t="inlineStr"/>
       <c r="OY14" t="n">
-        <v>9819184</v>
+        <v>200000</v>
       </c>
       <c r="OZ14" t="inlineStr"/>
       <c r="PA14" t="inlineStr"/>
@@ -27096,23 +27096,23 @@
         <v>255539248</v>
       </c>
       <c r="PI14" t="n">
-        <v>26200000000</v>
+        <v>3839000000</v>
       </c>
       <c r="PJ14" t="n">
+        <v>3505890709</v>
+      </c>
+      <c r="PK14" t="n">
         <v>53129129</v>
       </c>
-      <c r="PK14" t="n">
+      <c r="PL14" t="n">
         <v>281689463</v>
       </c>
-      <c r="PL14" t="n">
+      <c r="PM14" t="n">
         <v>351000000</v>
       </c>
-      <c r="PM14" t="inlineStr"/>
-      <c r="PN14" t="n">
+      <c r="PN14" t="inlineStr"/>
+      <c r="PO14" t="n">
         <v>4688386</v>
-      </c>
-      <c r="PO14" t="n">
-        <v>3505890709</v>
       </c>
       <c r="PP14" t="n">
         <v>23884516</v>
@@ -27124,7 +27124,7 @@
         <v>955511086</v>
       </c>
       <c r="PU14" t="n">
-        <v>10985000000</v>
+        <v>33369865</v>
       </c>
       <c r="PV14" t="inlineStr"/>
       <c r="PW14" t="inlineStr"/>
@@ -27141,12 +27141,12 @@
         <v>238924078</v>
       </c>
       <c r="QB14" t="n">
+        <v>1818815805</v>
+      </c>
+      <c r="QC14" t="n">
         <v>230854298538</v>
       </c>
-      <c r="QC14" t="inlineStr"/>
-      <c r="QD14" t="n">
-        <v>2990512228189</v>
-      </c>
+      <c r="QD14" t="inlineStr"/>
       <c r="QE14" t="inlineStr"/>
       <c r="QF14" t="n">
         <v>2930814329</v>
@@ -27465,7 +27465,7 @@
         <v>2734571</v>
       </c>
       <c r="UV14" t="n">
-        <v>13645329</v>
+        <v>37327961</v>
       </c>
       <c r="UW14" t="n">
         <v>34588421</v>

--- a/fossil_full.xlsx
+++ b/fossil_full.xlsx
@@ -5097,7 +5097,7 @@
       <c r="OD2" t="inlineStr"/>
       <c r="OE2" t="inlineStr"/>
       <c r="OF2" t="n">
-        <v>16000000</v>
+        <v>1400000</v>
       </c>
       <c r="OG2" t="n">
         <v>505361</v>
@@ -10445,7 +10445,7 @@
         <v>2000000</v>
       </c>
       <c r="OF5" t="n">
-        <v>500000</v>
+        <v>36200000</v>
       </c>
       <c r="OG5" t="n">
         <v>62035</v>
@@ -14133,7 +14133,7 @@
         <v>205098880</v>
       </c>
       <c r="OL7" t="n">
-        <v>95044</v>
+        <v>69908032</v>
       </c>
       <c r="OM7" t="n">
         <v>725908</v>
@@ -14145,7 +14145,7 @@
         <v>154698</v>
       </c>
       <c r="OP7" t="n">
-        <v>34277027</v>
+        <v>735384950</v>
       </c>
       <c r="OQ7" t="n">
         <v>14214</v>
@@ -23329,7 +23329,7 @@
       <c r="OD12" t="inlineStr"/>
       <c r="OE12" t="inlineStr"/>
       <c r="OF12" t="n">
-        <v>1879</v>
+        <v>500000</v>
       </c>
       <c r="OG12" t="inlineStr"/>
       <c r="OH12" t="inlineStr"/>
@@ -23355,7 +23355,7 @@
         <v>57662</v>
       </c>
       <c r="OP12" t="n">
-        <v>298366069</v>
+        <v>13319818</v>
       </c>
       <c r="OQ12" t="n">
         <v>260882805</v>
@@ -25139,7 +25139,7 @@
       <c r="OD13" t="inlineStr"/>
       <c r="OE13" t="inlineStr"/>
       <c r="OF13" t="n">
-        <v>2057</v>
+        <v>500000</v>
       </c>
       <c r="OG13" t="inlineStr"/>
       <c r="OH13" t="inlineStr"/>
@@ -25153,7 +25153,7 @@
         <v>68270</v>
       </c>
       <c r="OL13" t="n">
-        <v>134828517</v>
+        <v>94031581</v>
       </c>
       <c r="OM13" t="n">
         <v>10036229</v>
@@ -27037,7 +27037,7 @@
         <v>68270</v>
       </c>
       <c r="OL14" t="n">
-        <v>7618683</v>
+        <v>98335594</v>
       </c>
       <c r="OM14" t="n">
         <v>10626596</v>

--- a/fossil_full.xlsx
+++ b/fossil_full.xlsx
@@ -1916,34 +1916,34 @@
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - GBR][EXTRACT][CRUDEOIL]</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - GBR][END][BITCOAL]</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - GBR][EXTRACT][NATGAS]</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - GBR][END][RESFUEL]</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - GBR][EXTRACT][NGL]</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - GBR][END][NATGAS]</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - GBR][EXTRACT][CRUDEOIL]</t>
-        </is>
-      </c>
-      <c r="KN1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - GBR][END][RESFUEL]</t>
-        </is>
-      </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - GBR][END][BITCOAL]</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - GBR][EXTRACT][NATGAS]</t>
-        </is>
-      </c>
-      <c r="KQ1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - GBR][EXTRACT][NGL]</t>
-        </is>
-      </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - GBR][END][PATFUEL]</t>
@@ -2546,52 +2546,52 @@
       </c>
       <c r="PH1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - JPN][END][LPG]</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - JPN][END][NONBIODIES]</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - JPN][EXTRACT][NATGAS]</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - JPN][EXTRACT][NGL]</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - JPN][EXTRACT][CRUDEOIL]</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - JPN][TRANS][NATGAS]</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - JPN][END][OTHKERO]</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - JPN][EXTRACT][ANTCOAL]</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - JPN][GENER][BITCOAL]</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - JPN][TRANS][CRUDEOIL]</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - JPN][EXTRACT][NATGAS]</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - JPN][EXTRACT][CRUDEOIL]</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - JPN][EXTRACT][NGL]</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - JPN][TRANS][NATGAS]</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - JPN][END][OTHKERO]</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - JPN][END][LPG]</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - JPN][EXTRACT][ANTCOAL]</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - JPN][GENER][BITCOAL]</t>
         </is>
       </c>
       <c r="PR1" s="1" t="inlineStr">
@@ -4845,22 +4845,22 @@
       </c>
       <c r="KK2" t="inlineStr"/>
       <c r="KL2" t="n">
+        <v>55124039</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>69831334</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>4320357</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>175660746</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>461562</v>
+      </c>
+      <c r="KQ2" t="n">
         <v>5000000</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>55124039</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>175660746</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>69831334</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>4320357</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>461562</v>
       </c>
       <c r="KR2" t="n">
         <v>21860509</v>
@@ -5097,7 +5097,7 @@
       <c r="OD2" t="inlineStr"/>
       <c r="OE2" t="inlineStr"/>
       <c r="OF2" t="n">
-        <v>1400000</v>
+        <v>16000000</v>
       </c>
       <c r="OG2" t="n">
         <v>505361</v>
@@ -5149,32 +5149,32 @@
       <c r="PF2" t="inlineStr"/>
       <c r="PG2" t="inlineStr"/>
       <c r="PH2" t="n">
+        <v>287000000</v>
+      </c>
+      <c r="PI2" t="n">
         <v>271033348</v>
-      </c>
-      <c r="PI2" t="n">
-        <v>10145000000</v>
       </c>
       <c r="PJ2" t="n">
         <v>1071725496</v>
       </c>
       <c r="PK2" t="n">
-        <v>1185000000</v>
+        <v>400525442</v>
       </c>
       <c r="PL2" t="n">
-        <v>400525442</v>
+        <v>1193898088</v>
       </c>
       <c r="PM2" t="n">
         <v>385000000</v>
       </c>
       <c r="PN2" t="inlineStr"/>
       <c r="PO2" t="n">
-        <v>287000000</v>
+        <v>49944501</v>
       </c>
       <c r="PP2" t="n">
-        <v>49944501</v>
+        <v>458587241</v>
       </c>
       <c r="PQ2" t="n">
-        <v>471507937</v>
+        <v>10145000000</v>
       </c>
       <c r="PR2" t="n">
         <v>2960000000</v>
@@ -5189,7 +5189,7 @@
         <v>3568000000</v>
       </c>
       <c r="PV2" t="n">
-        <v>24554625</v>
+        <v>23692130</v>
       </c>
       <c r="PW2" t="n">
         <v>124000000</v>
@@ -6589,16 +6589,16 @@
       </c>
       <c r="KK3" t="inlineStr"/>
       <c r="KL3" t="n">
-        <v>3601952079</v>
-      </c>
-      <c r="KM3" t="n">
         <v>37271988</v>
       </c>
+      <c r="KM3" t="inlineStr"/>
       <c r="KN3" t="inlineStr"/>
       <c r="KO3" t="inlineStr"/>
-      <c r="KP3" t="inlineStr"/>
+      <c r="KP3" t="n">
+        <v>16368074</v>
+      </c>
       <c r="KQ3" t="n">
-        <v>16368074</v>
+        <v>3601952079</v>
       </c>
       <c r="KR3" t="n">
         <v>27514508</v>
@@ -6911,44 +6911,44 @@
         <v>3300000</v>
       </c>
       <c r="PH3" t="n">
+        <v>276000000</v>
+      </c>
+      <c r="PI3" t="n">
         <v>95043849</v>
       </c>
-      <c r="PI3" t="n">
-        <v>9835000000</v>
-      </c>
       <c r="PJ3" t="n">
-        <v>3303565668</v>
+        <v>22792273409</v>
       </c>
       <c r="PK3" t="n">
+        <v>446993932</v>
+      </c>
+      <c r="PL3" t="n">
         <v>5706310220</v>
-      </c>
-      <c r="PL3" t="n">
-        <v>446993932</v>
       </c>
       <c r="PM3" t="n">
         <v>479000000</v>
       </c>
       <c r="PN3" t="inlineStr"/>
       <c r="PO3" t="n">
-        <v>46393897</v>
+        <v>120537111</v>
       </c>
       <c r="PP3" t="n">
-        <v>120537111</v>
+        <v>654274086</v>
       </c>
       <c r="PQ3" t="n">
-        <v>654274086</v>
+        <v>9835000000</v>
       </c>
       <c r="PR3" t="n">
         <v>2757000000</v>
       </c>
       <c r="PS3" t="n">
-        <v>317675906</v>
+        <v>88698072</v>
       </c>
       <c r="PT3" t="n">
         <v>2365233371</v>
       </c>
       <c r="PU3" t="n">
-        <v>3377000000</v>
+        <v>1295000000</v>
       </c>
       <c r="PV3" t="n">
         <v>9227901</v>
@@ -6958,7 +6958,7 @@
         <v>201000000</v>
       </c>
       <c r="PY3" t="n">
-        <v>1601103239</v>
+        <v>1220000000</v>
       </c>
       <c r="PZ3" t="inlineStr"/>
       <c r="QA3" t="n">
@@ -8361,22 +8361,22 @@
       </c>
       <c r="KK4" t="inlineStr"/>
       <c r="KL4" t="n">
-        <v>45184630</v>
+        <v>32947039</v>
       </c>
       <c r="KM4" t="n">
-        <v>32947039</v>
+        <v>2489743</v>
       </c>
       <c r="KN4" t="n">
+        <v>14748022</v>
+      </c>
+      <c r="KO4" t="n">
         <v>40199500</v>
       </c>
-      <c r="KO4" t="n">
-        <v>2489743</v>
-      </c>
       <c r="KP4" t="n">
-        <v>14748022</v>
+        <v>339400</v>
       </c>
       <c r="KQ4" t="n">
-        <v>339400</v>
+        <v>2510257</v>
       </c>
       <c r="KR4" t="n">
         <v>21653329</v>
@@ -8711,32 +8711,32 @@
         <v>10800000</v>
       </c>
       <c r="PH4" t="n">
+        <v>278000000</v>
+      </c>
+      <c r="PI4" t="n">
         <v>90948001</v>
       </c>
-      <c r="PI4" t="n">
-        <v>6943000000</v>
-      </c>
       <c r="PJ4" t="n">
-        <v>1444054541</v>
+        <v>144923495</v>
       </c>
       <c r="PK4" t="n">
+        <v>604808968</v>
+      </c>
+      <c r="PL4" t="n">
         <v>2429268761</v>
-      </c>
-      <c r="PL4" t="n">
-        <v>604808968</v>
       </c>
       <c r="PM4" t="n">
         <v>617000000</v>
       </c>
       <c r="PN4" t="inlineStr"/>
       <c r="PO4" t="n">
-        <v>5052437</v>
+        <v>16580737</v>
       </c>
       <c r="PP4" t="n">
-        <v>16580737</v>
+        <v>3670000000</v>
       </c>
       <c r="PQ4" t="n">
-        <v>3670000000</v>
+        <v>6943000000</v>
       </c>
       <c r="PR4" t="n">
         <v>1673000000</v>
@@ -10179,22 +10179,22 @@
       </c>
       <c r="KK5" t="inlineStr"/>
       <c r="KL5" t="n">
+        <v>4398848516</v>
+      </c>
+      <c r="KM5" t="n">
+        <v>16757022</v>
+      </c>
+      <c r="KN5" t="n">
+        <v>3511151484</v>
+      </c>
+      <c r="KO5" t="n">
+        <v>60669399</v>
+      </c>
+      <c r="KP5" t="n">
+        <v>1403275</v>
+      </c>
+      <c r="KQ5" t="n">
         <v>10000000</v>
-      </c>
-      <c r="KM5" t="n">
-        <v>4398848516</v>
-      </c>
-      <c r="KN5" t="n">
-        <v>60669399</v>
-      </c>
-      <c r="KO5" t="n">
-        <v>16757022</v>
-      </c>
-      <c r="KP5" t="n">
-        <v>3511151484</v>
-      </c>
-      <c r="KQ5" t="n">
-        <v>1403275</v>
       </c>
       <c r="KR5" t="n">
         <v>24867251</v>
@@ -10445,7 +10445,7 @@
         <v>2000000</v>
       </c>
       <c r="OF5" t="n">
-        <v>36200000</v>
+        <v>500000</v>
       </c>
       <c r="OG5" t="n">
         <v>62035</v>
@@ -10523,32 +10523,32 @@
         <v>21300000</v>
       </c>
       <c r="PH5" t="n">
+        <v>285000000</v>
+      </c>
+      <c r="PI5" t="n">
         <v>53428800</v>
-      </c>
-      <c r="PI5" t="n">
-        <v>105682000000</v>
       </c>
       <c r="PJ5" t="n">
         <v>1661248801</v>
       </c>
       <c r="PK5" t="n">
+        <v>196163490</v>
+      </c>
+      <c r="PL5" t="n">
         <v>1172270919</v>
-      </c>
-      <c r="PL5" t="n">
-        <v>196163490</v>
       </c>
       <c r="PM5" t="n">
         <v>767000000</v>
       </c>
       <c r="PN5" t="inlineStr"/>
       <c r="PO5" t="n">
-        <v>285000000</v>
+        <v>17119417</v>
       </c>
       <c r="PP5" t="n">
-        <v>17119417</v>
+        <v>1678000000</v>
       </c>
       <c r="PQ5" t="n">
-        <v>1678000000</v>
+        <v>105682000000</v>
       </c>
       <c r="PR5" t="n">
         <v>1187000000</v>
@@ -10557,7 +10557,7 @@
         <v>118421388</v>
       </c>
       <c r="PT5" t="n">
-        <v>684055303</v>
+        <v>1491925301</v>
       </c>
       <c r="PU5" t="n">
         <v>7810000000</v>
@@ -11997,22 +11997,22 @@
       </c>
       <c r="KK6" t="inlineStr"/>
       <c r="KL6" t="n">
+        <v>32739080</v>
+      </c>
+      <c r="KM6" t="n">
+        <v>16793713</v>
+      </c>
+      <c r="KN6" t="n">
+        <v>2184708</v>
+      </c>
+      <c r="KO6" t="n">
+        <v>84407071</v>
+      </c>
+      <c r="KP6" t="n">
+        <v>180277</v>
+      </c>
+      <c r="KQ6" t="n">
         <v>20000000</v>
-      </c>
-      <c r="KM6" t="n">
-        <v>2635014</v>
-      </c>
-      <c r="KN6" t="n">
-        <v>84407071</v>
-      </c>
-      <c r="KO6" t="n">
-        <v>16793713</v>
-      </c>
-      <c r="KP6" t="n">
-        <v>2184708</v>
-      </c>
-      <c r="KQ6" t="n">
-        <v>180277</v>
       </c>
       <c r="KR6" t="n">
         <v>23039482</v>
@@ -12345,38 +12345,38 @@
         <v>2200000</v>
       </c>
       <c r="PH6" t="n">
+        <v>3820046</v>
+      </c>
+      <c r="PI6" t="n">
         <v>74700651</v>
       </c>
-      <c r="PI6" t="n">
-        <v>362000000</v>
-      </c>
       <c r="PJ6" t="n">
-        <v>28232810999</v>
+        <v>1811049922</v>
       </c>
       <c r="PK6" t="n">
+        <v>128629397</v>
+      </c>
+      <c r="PL6" t="n">
         <v>2762407655</v>
-      </c>
-      <c r="PL6" t="n">
-        <v>128629397</v>
       </c>
       <c r="PM6" t="n">
         <v>888000000</v>
       </c>
       <c r="PN6" t="inlineStr"/>
       <c r="PO6" t="n">
-        <v>327000000</v>
+        <v>45971399</v>
       </c>
       <c r="PP6" t="n">
-        <v>28876507</v>
+        <v>1252255349</v>
       </c>
       <c r="PQ6" t="n">
-        <v>1252255349</v>
+        <v>411000000</v>
       </c>
       <c r="PR6" t="n">
         <v>485000000</v>
       </c>
       <c r="PS6" t="n">
-        <v>11583711</v>
+        <v>205956175</v>
       </c>
       <c r="PT6" t="n">
         <v>1379696202</v>
@@ -12396,7 +12396,7 @@
       </c>
       <c r="PZ6" t="inlineStr"/>
       <c r="QA6" t="n">
-        <v>280554792</v>
+        <v>446643229</v>
       </c>
       <c r="QB6" t="n">
         <v>301543911</v>
@@ -13849,22 +13849,22 @@
       </c>
       <c r="KK7" t="inlineStr"/>
       <c r="KL7" t="n">
+        <v>301998326</v>
+      </c>
+      <c r="KM7" t="n">
+        <v>14267073</v>
+      </c>
+      <c r="KN7" t="n">
+        <v>8528423</v>
+      </c>
+      <c r="KO7" t="n">
+        <v>59915680</v>
+      </c>
+      <c r="KP7" t="n">
+        <v>649933</v>
+      </c>
+      <c r="KQ7" t="n">
         <v>25732927</v>
-      </c>
-      <c r="KM7" t="n">
-        <v>33002374</v>
-      </c>
-      <c r="KN7" t="n">
-        <v>59915680</v>
-      </c>
-      <c r="KO7" t="n">
-        <v>14267073</v>
-      </c>
-      <c r="KP7" t="n">
-        <v>8528423</v>
-      </c>
-      <c r="KQ7" t="n">
-        <v>649933</v>
       </c>
       <c r="KR7" t="n">
         <v>19836316</v>
@@ -14133,7 +14133,7 @@
         <v>205098880</v>
       </c>
       <c r="OL7" t="n">
-        <v>69908032</v>
+        <v>95044</v>
       </c>
       <c r="OM7" t="n">
         <v>725908</v>
@@ -14145,7 +14145,7 @@
         <v>154698</v>
       </c>
       <c r="OP7" t="n">
-        <v>735384950</v>
+        <v>34277027</v>
       </c>
       <c r="OQ7" t="n">
         <v>14214</v>
@@ -14195,32 +14195,32 @@
         <v>1014000</v>
       </c>
       <c r="PH7" t="n">
+        <v>257000000</v>
+      </c>
+      <c r="PI7" t="n">
         <v>2271371975</v>
-      </c>
-      <c r="PI7" t="n">
-        <v>636000000</v>
       </c>
       <c r="PJ7" t="n">
         <v>1249665354</v>
       </c>
       <c r="PK7" t="n">
+        <v>138053591</v>
+      </c>
+      <c r="PL7" t="n">
         <v>108281055</v>
-      </c>
-      <c r="PL7" t="n">
-        <v>138053591</v>
       </c>
       <c r="PM7" t="n">
         <v>914000000</v>
       </c>
       <c r="PN7" t="inlineStr"/>
       <c r="PO7" t="n">
-        <v>257000000</v>
+        <v>53620070</v>
       </c>
       <c r="PP7" t="n">
-        <v>53620070</v>
+        <v>1904000000</v>
       </c>
       <c r="PQ7" t="n">
-        <v>845440461</v>
+        <v>636000000</v>
       </c>
       <c r="PR7" t="inlineStr"/>
       <c r="PS7" t="n">
@@ -15701,22 +15701,22 @@
       </c>
       <c r="KK8" t="inlineStr"/>
       <c r="KL8" t="n">
+        <v>841780297</v>
+      </c>
+      <c r="KM8" t="n">
+        <v>7065701</v>
+      </c>
+      <c r="KN8" t="n">
+        <v>6319796</v>
+      </c>
+      <c r="KO8" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="KP8" t="n">
+        <v>597978</v>
+      </c>
+      <c r="KQ8" t="n">
         <v>45000000</v>
-      </c>
-      <c r="KM8" t="n">
-        <v>841780297</v>
-      </c>
-      <c r="KN8" t="n">
-        <v>100000000</v>
-      </c>
-      <c r="KO8" t="n">
-        <v>7065701</v>
-      </c>
-      <c r="KP8" t="n">
-        <v>6319796</v>
-      </c>
-      <c r="KQ8" t="n">
-        <v>597978</v>
       </c>
       <c r="KR8" t="n">
         <v>20235953</v>
@@ -16043,32 +16043,32 @@
         <v>440000</v>
       </c>
       <c r="PH8" t="n">
+        <v>305000000</v>
+      </c>
+      <c r="PI8" t="n">
         <v>1016480462</v>
       </c>
-      <c r="PI8" t="n">
-        <v>670000000</v>
-      </c>
       <c r="PJ8" t="n">
-        <v>13444869580</v>
+        <v>3233029998</v>
       </c>
       <c r="PK8" t="n">
+        <v>248636894</v>
+      </c>
+      <c r="PL8" t="n">
         <v>1910865047</v>
-      </c>
-      <c r="PL8" t="n">
-        <v>248636894</v>
       </c>
       <c r="PM8" t="n">
         <v>875000000</v>
       </c>
       <c r="PN8" t="inlineStr"/>
       <c r="PO8" t="n">
-        <v>305000000</v>
+        <v>51495378</v>
       </c>
       <c r="PP8" t="n">
-        <v>51495378</v>
+        <v>1139000000</v>
       </c>
       <c r="PQ8" t="n">
-        <v>641712381</v>
+        <v>670000000</v>
       </c>
       <c r="PR8" t="inlineStr"/>
       <c r="PS8" t="n">
@@ -17571,22 +17571,22 @@
       </c>
       <c r="KK9" t="inlineStr"/>
       <c r="KL9" t="n">
+        <v>831321912</v>
+      </c>
+      <c r="KM9" t="n">
+        <v>5640672</v>
+      </c>
+      <c r="KN9" t="n">
+        <v>8522131</v>
+      </c>
+      <c r="KO9" t="n">
+        <v>125000000</v>
+      </c>
+      <c r="KP9" t="n">
+        <v>5087817</v>
+      </c>
+      <c r="KQ9" t="n">
         <v>115962731</v>
-      </c>
-      <c r="KM9" t="n">
-        <v>831321912</v>
-      </c>
-      <c r="KN9" t="n">
-        <v>125000000</v>
-      </c>
-      <c r="KO9" t="n">
-        <v>5640672</v>
-      </c>
-      <c r="KP9" t="n">
-        <v>8522131</v>
-      </c>
-      <c r="KQ9" t="n">
-        <v>5087817</v>
       </c>
       <c r="KR9" t="n">
         <v>23338648</v>
@@ -17913,38 +17913,38 @@
         <v>430000</v>
       </c>
       <c r="PH9" t="n">
+        <v>320000000</v>
+      </c>
+      <c r="PI9" t="n">
         <v>821972234</v>
       </c>
-      <c r="PI9" t="n">
-        <v>800000000</v>
-      </c>
       <c r="PJ9" t="n">
-        <v>2686966392</v>
+        <v>2278258240</v>
       </c>
       <c r="PK9" t="n">
-        <v>160632756</v>
+        <v>640646302</v>
       </c>
       <c r="PL9" t="n">
-        <v>640646302</v>
+        <v>2286268267</v>
       </c>
       <c r="PM9" t="n">
         <v>802000000</v>
       </c>
       <c r="PN9" t="inlineStr"/>
       <c r="PO9" t="n">
-        <v>320000000</v>
-      </c>
-      <c r="PP9" t="n">
         <v>45613597</v>
       </c>
-      <c r="PQ9" t="inlineStr"/>
+      <c r="PP9" t="inlineStr"/>
+      <c r="PQ9" t="n">
+        <v>5157000000</v>
+      </c>
       <c r="PR9" t="inlineStr"/>
       <c r="PS9" t="inlineStr"/>
       <c r="PT9" t="n">
         <v>919655988</v>
       </c>
       <c r="PU9" t="n">
-        <v>3384000000</v>
+        <v>10142000000</v>
       </c>
       <c r="PV9" t="inlineStr"/>
       <c r="PW9" t="inlineStr"/>
@@ -19419,22 +19419,22 @@
       </c>
       <c r="KK10" t="inlineStr"/>
       <c r="KL10" t="n">
-        <v>35000000</v>
+        <v>5609215</v>
       </c>
       <c r="KM10" t="n">
-        <v>819295750</v>
+        <v>4714132</v>
       </c>
       <c r="KN10" t="n">
+        <v>7956265</v>
+      </c>
+      <c r="KO10" t="n">
         <v>145000000</v>
       </c>
-      <c r="KO10" t="n">
-        <v>22981392</v>
-      </c>
       <c r="KP10" t="n">
-        <v>7956265</v>
+        <v>409256</v>
       </c>
       <c r="KQ10" t="n">
-        <v>818512</v>
+        <v>172018608</v>
       </c>
       <c r="KR10" t="n">
         <v>22138475</v>
@@ -19753,31 +19753,31 @@
         <v>260000</v>
       </c>
       <c r="PH10" t="n">
+        <v>29024391</v>
+      </c>
+      <c r="PI10" t="n">
         <v>777509914</v>
-      </c>
-      <c r="PI10" t="n">
-        <v>4806000000</v>
       </c>
       <c r="PJ10" t="n">
         <v>3071008937</v>
       </c>
       <c r="PK10" t="n">
+        <v>222712615</v>
+      </c>
+      <c r="PL10" t="n">
         <v>227682625</v>
-      </c>
-      <c r="PL10" t="n">
-        <v>222712615</v>
       </c>
       <c r="PM10" t="n">
         <v>705000000</v>
       </c>
       <c r="PN10" t="inlineStr"/>
       <c r="PO10" t="n">
-        <v>29024391</v>
-      </c>
-      <c r="PP10" t="n">
         <v>21622077</v>
       </c>
-      <c r="PQ10" t="inlineStr"/>
+      <c r="PP10" t="inlineStr"/>
+      <c r="PQ10" t="n">
+        <v>4806000000</v>
+      </c>
       <c r="PR10" t="inlineStr"/>
       <c r="PS10" t="inlineStr"/>
       <c r="PT10" t="n">
@@ -19792,11 +19792,11 @@
         <v>594000000</v>
       </c>
       <c r="PY10" t="n">
-        <v>712000000</v>
+        <v>1381465695</v>
       </c>
       <c r="PZ10" t="inlineStr"/>
       <c r="QA10" t="n">
-        <v>366631296</v>
+        <v>174664029</v>
       </c>
       <c r="QB10" t="n">
         <v>1699648043</v>
@@ -21263,22 +21263,22 @@
       </c>
       <c r="KK11" t="inlineStr"/>
       <c r="KL11" t="n">
+        <v>1023856471</v>
+      </c>
+      <c r="KM11" t="n">
+        <v>21585562</v>
+      </c>
+      <c r="KN11" t="n">
+        <v>7648089</v>
+      </c>
+      <c r="KO11" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="KP11" t="n">
+        <v>10156860</v>
+      </c>
+      <c r="KQ11" t="n">
         <v>30000000</v>
-      </c>
-      <c r="KM11" t="n">
-        <v>1023856471</v>
-      </c>
-      <c r="KN11" t="n">
-        <v>150000000</v>
-      </c>
-      <c r="KO11" t="n">
-        <v>3597594</v>
-      </c>
-      <c r="KP11" t="n">
-        <v>7648089</v>
-      </c>
-      <c r="KQ11" t="n">
-        <v>10156860</v>
       </c>
       <c r="KR11" t="n">
         <v>20223733</v>
@@ -21587,38 +21587,38 @@
         <v>200000</v>
       </c>
       <c r="PH11" t="n">
+        <v>116038817</v>
+      </c>
+      <c r="PI11" t="n">
         <v>3550452576</v>
-      </c>
-      <c r="PI11" t="n">
-        <v>4482000000</v>
       </c>
       <c r="PJ11" t="n">
         <v>44324530105</v>
       </c>
       <c r="PK11" t="n">
+        <v>328194878</v>
+      </c>
+      <c r="PL11" t="n">
         <v>128645744</v>
-      </c>
-      <c r="PL11" t="n">
-        <v>328194878</v>
       </c>
       <c r="PM11" t="n">
         <v>609000000</v>
       </c>
       <c r="PN11" t="inlineStr"/>
       <c r="PO11" t="n">
-        <v>116038817</v>
-      </c>
-      <c r="PP11" t="n">
         <v>24732256</v>
       </c>
-      <c r="PQ11" t="inlineStr"/>
+      <c r="PP11" t="inlineStr"/>
+      <c r="PQ11" t="n">
+        <v>4482000000</v>
+      </c>
       <c r="PR11" t="inlineStr"/>
       <c r="PS11" t="inlineStr"/>
       <c r="PT11" t="n">
         <v>925311663</v>
       </c>
       <c r="PU11" t="n">
-        <v>9803000000</v>
+        <v>56507194</v>
       </c>
       <c r="PV11" t="inlineStr"/>
       <c r="PW11" t="inlineStr"/>
@@ -23081,22 +23081,22 @@
       <c r="KJ12" t="inlineStr"/>
       <c r="KK12" t="inlineStr"/>
       <c r="KL12" t="n">
-        <v>201812529</v>
+        <v>698113867</v>
       </c>
       <c r="KM12" t="n">
-        <v>698113867</v>
+        <v>3373539</v>
       </c>
       <c r="KN12" t="n">
+        <v>8010115</v>
+      </c>
+      <c r="KO12" t="n">
         <v>170000000</v>
       </c>
-      <c r="KO12" t="n">
-        <v>3373539</v>
-      </c>
       <c r="KP12" t="n">
-        <v>501886133</v>
+        <v>3597221</v>
       </c>
       <c r="KQ12" t="n">
-        <v>3597221</v>
+        <v>30000000</v>
       </c>
       <c r="KR12" t="n">
         <v>18487944</v>
@@ -23329,7 +23329,7 @@
       <c r="OD12" t="inlineStr"/>
       <c r="OE12" t="inlineStr"/>
       <c r="OF12" t="n">
-        <v>500000</v>
+        <v>1879</v>
       </c>
       <c r="OG12" t="inlineStr"/>
       <c r="OH12" t="inlineStr"/>
@@ -23355,7 +23355,7 @@
         <v>57662</v>
       </c>
       <c r="OP12" t="n">
-        <v>13319818</v>
+        <v>298366069</v>
       </c>
       <c r="OQ12" t="n">
         <v>260882805</v>
@@ -23399,31 +23399,31 @@
       </c>
       <c r="PG12" t="inlineStr"/>
       <c r="PH12" t="n">
+        <v>24500878</v>
+      </c>
+      <c r="PI12" t="n">
         <v>1233542659</v>
-      </c>
-      <c r="PI12" t="n">
-        <v>4194000000</v>
       </c>
       <c r="PJ12" t="n">
         <v>2043069581</v>
       </c>
       <c r="PK12" t="n">
+        <v>382158905</v>
+      </c>
+      <c r="PL12" t="n">
         <v>69274388</v>
-      </c>
-      <c r="PL12" t="n">
-        <v>382158905</v>
       </c>
       <c r="PM12" t="n">
         <v>508000000</v>
       </c>
       <c r="PN12" t="inlineStr"/>
       <c r="PO12" t="n">
-        <v>24500878</v>
-      </c>
-      <c r="PP12" t="n">
-        <v>42846655</v>
-      </c>
-      <c r="PQ12" t="inlineStr"/>
+        <v>30881265</v>
+      </c>
+      <c r="PP12" t="inlineStr"/>
+      <c r="PQ12" t="n">
+        <v>4194000000</v>
+      </c>
       <c r="PR12" t="inlineStr"/>
       <c r="PS12" t="inlineStr"/>
       <c r="PT12" t="n">
@@ -23442,7 +23442,7 @@
       </c>
       <c r="PZ12" t="inlineStr"/>
       <c r="QA12" t="n">
-        <v>244749664</v>
+        <v>339582313</v>
       </c>
       <c r="QB12" t="n">
         <v>1749194941</v>
@@ -24895,22 +24895,22 @@
       <c r="KJ13" t="inlineStr"/>
       <c r="KK13" t="inlineStr"/>
       <c r="KL13" t="n">
+        <v>450008200</v>
+      </c>
+      <c r="KM13" t="n">
+        <v>3774967</v>
+      </c>
+      <c r="KN13" t="n">
+        <v>319991800</v>
+      </c>
+      <c r="KO13" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="KP13" t="n">
+        <v>14388885</v>
+      </c>
+      <c r="KQ13" t="n">
         <v>40000000</v>
-      </c>
-      <c r="KM13" t="n">
-        <v>450008200</v>
-      </c>
-      <c r="KN13" t="n">
-        <v>150000000</v>
-      </c>
-      <c r="KO13" t="n">
-        <v>3774967</v>
-      </c>
-      <c r="KP13" t="n">
-        <v>7977201</v>
-      </c>
-      <c r="KQ13" t="n">
-        <v>14388885</v>
       </c>
       <c r="KR13" t="n">
         <v>16620704</v>
@@ -25139,7 +25139,7 @@
       <c r="OD13" t="inlineStr"/>
       <c r="OE13" t="inlineStr"/>
       <c r="OF13" t="n">
-        <v>500000</v>
+        <v>2057</v>
       </c>
       <c r="OG13" t="inlineStr"/>
       <c r="OH13" t="inlineStr"/>
@@ -25153,7 +25153,7 @@
         <v>68270</v>
       </c>
       <c r="OL13" t="n">
-        <v>94031581</v>
+        <v>134828517</v>
       </c>
       <c r="OM13" t="n">
         <v>10036229</v>
@@ -25209,19 +25209,19 @@
       </c>
       <c r="PG13" t="inlineStr"/>
       <c r="PH13" t="n">
+        <v>7925605</v>
+      </c>
+      <c r="PI13" t="n">
         <v>14727742195</v>
-      </c>
-      <c r="PI13" t="n">
-        <v>25912000000</v>
       </c>
       <c r="PJ13" t="n">
         <v>2562985031</v>
       </c>
       <c r="PK13" t="n">
+        <v>357783512</v>
+      </c>
+      <c r="PL13" t="n">
         <v>61896182</v>
-      </c>
-      <c r="PL13" t="n">
-        <v>357783512</v>
       </c>
       <c r="PM13" t="n">
         <v>410000000</v>
@@ -25230,16 +25230,16 @@
         <v>4611803055</v>
       </c>
       <c r="PO13" t="n">
-        <v>7925605</v>
-      </c>
-      <c r="PP13" t="n">
         <v>33248475</v>
       </c>
-      <c r="PQ13" t="inlineStr"/>
+      <c r="PP13" t="inlineStr"/>
+      <c r="PQ13" t="n">
+        <v>4912000000</v>
+      </c>
       <c r="PR13" t="inlineStr"/>
       <c r="PS13" t="inlineStr"/>
       <c r="PT13" t="n">
-        <v>619344501</v>
+        <v>830022540</v>
       </c>
       <c r="PU13" t="n">
         <v>8975000000</v>
@@ -26767,22 +26767,22 @@
         <v>38645331</v>
       </c>
       <c r="KL14" t="n">
-        <v>16643085200</v>
+        <v>577151901</v>
       </c>
       <c r="KM14" t="n">
-        <v>577151901</v>
+        <v>4089547</v>
       </c>
       <c r="KN14" t="n">
+        <v>9104019</v>
+      </c>
+      <c r="KO14" t="n">
         <v>10913460</v>
       </c>
-      <c r="KO14" t="n">
-        <v>4089547</v>
-      </c>
       <c r="KP14" t="n">
-        <v>9104019</v>
+        <v>35972212</v>
       </c>
       <c r="KQ14" t="n">
-        <v>35972212</v>
+        <v>238956392</v>
       </c>
       <c r="KR14" t="n">
         <v>29405861</v>
@@ -27037,7 +27037,7 @@
         <v>68270</v>
       </c>
       <c r="OL14" t="n">
-        <v>98335594</v>
+        <v>7618683</v>
       </c>
       <c r="OM14" t="n">
         <v>10626596</v>
@@ -27093,38 +27093,38 @@
       </c>
       <c r="PG14" t="inlineStr"/>
       <c r="PH14" t="n">
+        <v>4688386</v>
+      </c>
+      <c r="PI14" t="n">
         <v>255539248</v>
-      </c>
-      <c r="PI14" t="n">
-        <v>3839000000</v>
       </c>
       <c r="PJ14" t="n">
         <v>3505890709</v>
       </c>
       <c r="PK14" t="n">
+        <v>281689463</v>
+      </c>
+      <c r="PL14" t="n">
         <v>53129129</v>
-      </c>
-      <c r="PL14" t="n">
-        <v>281689463</v>
       </c>
       <c r="PM14" t="n">
         <v>351000000</v>
       </c>
       <c r="PN14" t="inlineStr"/>
       <c r="PO14" t="n">
-        <v>4688386</v>
-      </c>
-      <c r="PP14" t="n">
         <v>23884516</v>
       </c>
-      <c r="PQ14" t="inlineStr"/>
+      <c r="PP14" t="inlineStr"/>
+      <c r="PQ14" t="n">
+        <v>5331000000</v>
+      </c>
       <c r="PR14" t="inlineStr"/>
       <c r="PS14" t="inlineStr"/>
       <c r="PT14" t="n">
         <v>955511086</v>
       </c>
       <c r="PU14" t="n">
-        <v>33369865</v>
+        <v>10985000000</v>
       </c>
       <c r="PV14" t="inlineStr"/>
       <c r="PW14" t="inlineStr"/>

--- a/fossil_full.xlsx
+++ b/fossil_full.xlsx
@@ -1741,134 +1741,134 @@
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - FRA][END][NONBIOGASO]</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - FRA][REFIN][NATGAS]</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - FRA][END][RESFUEL]</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][NONBIODIES]</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][GENER][REFINGAS]</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][NATGAS]</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][GENER][NATGAS]</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][GENER][RESFUEL]</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][EXTRACT][NGL]</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][PETCOKE]</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][ELECTR]</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][AVGAS]</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][OTHKERO]</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - FRA][END][NONBIOGASO]</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][EXTRACT][NATGAS]</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][REFIN][RESFUEL]</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][OVENCOKE]</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][BITCOAL]</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][NONBIOJETK]</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][LPG]</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][REFINGAS]</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][EXTRACT][CRUDEOIL]</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][TRANS][NATGAS]</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][REFIN][LPG]</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][ANTCOAL]</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][END][BITUMEN]</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][REFIN][REFINGAS]</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - FRA][REFIN][NATGAS]</t>
-        </is>
-      </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - FRA][GENER][ELECTR]</t>
@@ -1921,19 +1921,19 @@
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - GBR][END][RESFUEL]</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - GBR][END][BITCOAL]</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - GBR][EXTRACT][NATGAS]</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - GBR][END][RESFUEL]</t>
-        </is>
-      </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - GBR][EXTRACT][NGL]</t>
@@ -2411,29 +2411,29 @@
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - ITA][END][PETCOKE]</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - ITA][INDUS][LUBRIC]</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - ITA][END][NATGAS]</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - ITA][GENER][BITCOAL]</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - ITA][EXTRACT][BITCOAL]</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - ITA][END][PETCOKE]</t>
-        </is>
-      </c>
-      <c r="OI1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - ITA][INDUS][LUBRIC]</t>
-        </is>
-      </c>
-      <c r="OJ1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - ITA][END][NATGAS]</t>
-        </is>
-      </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - ITA][GENER][BITCOAL]</t>
-        </is>
-      </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - ITA][END][LPG]</t>
@@ -2526,19 +2526,19 @@
       </c>
       <c r="PD1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - ITA][END][NONBIOJETK]</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>[Fossil Fuel Support - ITA][INDUS][LPG]</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - ITA][END][NGL]</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - ITA][END][NONBIOJETK]</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - ITA][INDUS][LPG]</t>
-        </is>
-      </c>
       <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>[Fossil Fuel Support - ITA][END][BITUMEN]</t>
@@ -2621,12 +2621,12 @@
       </c>
       <c r="PW1" s="1" t="inlineStr">
         <is>
+          <t>[Fossil Fuel Support - JPN][REFIN][CRUDEOIL]</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
           <t>[Fossil Fuel Support - JPN][END][NATGAS]</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>[Fossil Fuel Support - JPN][REFIN][CRUDEOIL]</t>
         </is>
       </c>
       <c r="PY1" s="1" t="inlineStr">
@@ -4764,68 +4764,68 @@
       <c r="JA2" t="inlineStr"/>
       <c r="JB2" t="inlineStr"/>
       <c r="JC2" t="n">
+        <v>6100290</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>20801928</v>
+      </c>
+      <c r="JE2" t="n">
         <v>1715207</v>
       </c>
-      <c r="JD2" t="n">
+      <c r="JF2" t="n">
         <v>200000000</v>
       </c>
-      <c r="JE2" t="n">
+      <c r="JG2" t="n">
         <v>495519</v>
       </c>
-      <c r="JF2" t="n">
+      <c r="JH2" t="n">
         <v>196012</v>
       </c>
-      <c r="JG2" t="n">
+      <c r="JI2" t="n">
         <v>9406314</v>
       </c>
-      <c r="JH2" t="n">
+      <c r="JJ2" t="n">
         <v>98167</v>
       </c>
-      <c r="JI2" t="n">
+      <c r="JK2" t="n">
         <v>440600</v>
       </c>
-      <c r="JJ2" t="inlineStr"/>
-      <c r="JK2" t="n">
+      <c r="JL2" t="inlineStr"/>
+      <c r="JM2" t="n">
         <v>594000</v>
       </c>
-      <c r="JL2" t="n">
+      <c r="JN2" t="n">
         <v>67250</v>
       </c>
-      <c r="JM2" t="inlineStr"/>
-      <c r="JN2" t="n">
-        <v>1249677</v>
-      </c>
-      <c r="JO2" t="n">
+      <c r="JO2" t="inlineStr"/>
+      <c r="JP2" t="n">
         <v>2000000</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="JQ2" t="n">
         <v>12890410</v>
       </c>
-      <c r="JQ2" t="inlineStr"/>
       <c r="JR2" t="inlineStr"/>
-      <c r="JS2" t="n">
+      <c r="JS2" t="inlineStr"/>
+      <c r="JT2" t="n">
         <v>312092046</v>
       </c>
-      <c r="JT2" t="n">
+      <c r="JU2" t="n">
         <v>2611859</v>
       </c>
-      <c r="JU2" t="inlineStr"/>
-      <c r="JV2" t="n">
+      <c r="JV2" t="inlineStr"/>
+      <c r="JW2" t="n">
         <v>63485994</v>
       </c>
-      <c r="JW2" t="inlineStr"/>
-      <c r="JX2" t="n">
+      <c r="JX2" t="inlineStr"/>
+      <c r="JY2" t="n">
         <v>862182</v>
       </c>
-      <c r="JY2" t="inlineStr"/>
-      <c r="JZ2" t="n">
+      <c r="JZ2" t="inlineStr"/>
+      <c r="KA2" t="n">
         <v>4000000</v>
       </c>
-      <c r="KA2" t="n">
+      <c r="KB2" t="n">
         <v>55786691</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>20801928</v>
       </c>
       <c r="KC2" t="inlineStr"/>
       <c r="KD2" t="n">
@@ -4848,13 +4848,13 @@
         <v>55124039</v>
       </c>
       <c r="KM2" t="n">
+        <v>175660746</v>
+      </c>
+      <c r="KN2" t="n">
         <v>69831334</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KO2" t="n">
         <v>4320357</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>175660746</v>
       </c>
       <c r="KP2" t="n">
         <v>461562</v>
@@ -5099,14 +5099,14 @@
       <c r="OF2" t="n">
         <v>16000000</v>
       </c>
-      <c r="OG2" t="n">
-        <v>505361</v>
-      </c>
+      <c r="OG2" t="inlineStr"/>
       <c r="OH2" t="inlineStr"/>
       <c r="OI2" t="inlineStr"/>
-      <c r="OJ2" t="inlineStr"/>
+      <c r="OJ2" t="n">
+        <v>649783664</v>
+      </c>
       <c r="OK2" t="n">
-        <v>649783664</v>
+        <v>505361</v>
       </c>
       <c r="OL2" t="n">
         <v>96627873</v>
@@ -5161,7 +5161,7 @@
         <v>400525442</v>
       </c>
       <c r="PL2" t="n">
-        <v>1193898088</v>
+        <v>2654000000</v>
       </c>
       <c r="PM2" t="n">
         <v>385000000</v>
@@ -5189,13 +5189,13 @@
         <v>3568000000</v>
       </c>
       <c r="PV2" t="n">
-        <v>23692130</v>
+        <v>24554625</v>
       </c>
       <c r="PW2" t="n">
+        <v>190000000</v>
+      </c>
+      <c r="PX2" t="n">
         <v>124000000</v>
-      </c>
-      <c r="PX2" t="n">
-        <v>190000000</v>
       </c>
       <c r="PY2" t="n">
         <v>1164973332</v>
@@ -6506,68 +6506,68 @@
         <v>186189</v>
       </c>
       <c r="JC3" t="n">
+        <v>8087874</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>11359224</v>
+      </c>
+      <c r="JE3" t="n">
         <v>1675763</v>
       </c>
-      <c r="JD3" t="n">
+      <c r="JF3" t="n">
         <v>1524490</v>
       </c>
-      <c r="JE3" t="n">
+      <c r="JG3" t="n">
         <v>598083</v>
       </c>
-      <c r="JF3" t="n">
+      <c r="JH3" t="n">
         <v>253000000</v>
       </c>
-      <c r="JG3" t="n">
+      <c r="JI3" t="n">
         <v>9181036</v>
       </c>
-      <c r="JH3" t="n">
+      <c r="JJ3" t="n">
         <v>220881</v>
       </c>
-      <c r="JI3" t="n">
+      <c r="JK3" t="n">
         <v>1546316</v>
       </c>
-      <c r="JJ3" t="inlineStr"/>
-      <c r="JK3" t="n">
+      <c r="JL3" t="inlineStr"/>
+      <c r="JM3" t="n">
         <v>600000</v>
       </c>
-      <c r="JL3" t="n">
+      <c r="JN3" t="n">
         <v>35612</v>
       </c>
-      <c r="JM3" t="inlineStr"/>
-      <c r="JN3" t="n">
-        <v>8087874</v>
-      </c>
-      <c r="JO3" t="n">
+      <c r="JO3" t="inlineStr"/>
+      <c r="JP3" t="n">
         <v>3000000</v>
       </c>
-      <c r="JP3" t="n">
+      <c r="JQ3" t="n">
         <v>9676116</v>
       </c>
-      <c r="JQ3" t="inlineStr"/>
       <c r="JR3" t="inlineStr"/>
-      <c r="JS3" t="n">
+      <c r="JS3" t="inlineStr"/>
+      <c r="JT3" t="n">
         <v>626639318</v>
       </c>
-      <c r="JT3" t="n">
+      <c r="JU3" t="n">
         <v>2931843</v>
       </c>
-      <c r="JU3" t="inlineStr"/>
-      <c r="JV3" t="n">
+      <c r="JV3" t="inlineStr"/>
+      <c r="JW3" t="n">
         <v>50343623</v>
       </c>
-      <c r="JW3" t="inlineStr"/>
-      <c r="JX3" t="n">
+      <c r="JX3" t="inlineStr"/>
+      <c r="JY3" t="n">
         <v>842995</v>
       </c>
-      <c r="JY3" t="inlineStr"/>
-      <c r="JZ3" t="n">
+      <c r="JZ3" t="inlineStr"/>
+      <c r="KA3" t="n">
         <v>4000000</v>
       </c>
-      <c r="KA3" t="n">
+      <c r="KB3" t="n">
         <v>46004750</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>11359224</v>
       </c>
       <c r="KC3" t="inlineStr"/>
       <c r="KD3" t="n">
@@ -6847,16 +6847,16 @@
       <c r="OF3" t="n">
         <v>24800000</v>
       </c>
-      <c r="OG3" t="n">
+      <c r="OG3" t="inlineStr"/>
+      <c r="OH3" t="inlineStr"/>
+      <c r="OI3" t="n">
+        <v>1150886</v>
+      </c>
+      <c r="OJ3" t="n">
+        <v>601256128</v>
+      </c>
+      <c r="OK3" t="n">
         <v>442331</v>
-      </c>
-      <c r="OH3" t="inlineStr"/>
-      <c r="OI3" t="inlineStr"/>
-      <c r="OJ3" t="n">
-        <v>1150886</v>
-      </c>
-      <c r="OK3" t="n">
-        <v>601256128</v>
       </c>
       <c r="OL3" t="n">
         <v>21275731</v>
@@ -6902,10 +6902,10 @@
       <c r="PC3" t="n">
         <v>929892</v>
       </c>
-      <c r="PD3" t="inlineStr"/>
-      <c r="PE3" t="n">
+      <c r="PD3" t="n">
         <v>274846529</v>
       </c>
+      <c r="PE3" t="inlineStr"/>
       <c r="PF3" t="inlineStr"/>
       <c r="PG3" t="n">
         <v>3300000</v>
@@ -6942,21 +6942,21 @@
         <v>2757000000</v>
       </c>
       <c r="PS3" t="n">
-        <v>88698072</v>
+        <v>317675906</v>
       </c>
       <c r="PT3" t="n">
         <v>2365233371</v>
       </c>
       <c r="PU3" t="n">
-        <v>1295000000</v>
+        <v>3377000000</v>
       </c>
       <c r="PV3" t="n">
         <v>9227901</v>
       </c>
-      <c r="PW3" t="inlineStr"/>
-      <c r="PX3" t="n">
+      <c r="PW3" t="n">
         <v>201000000</v>
       </c>
+      <c r="PX3" t="inlineStr"/>
       <c r="PY3" t="n">
         <v>1220000000</v>
       </c>
@@ -8278,68 +8278,68 @@
         <v>1888491</v>
       </c>
       <c r="JC4" t="n">
+        <v>7588261</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>12551286</v>
+      </c>
+      <c r="JE4" t="n">
         <v>1717058</v>
       </c>
-      <c r="JD4" t="n">
-        <v>2928548</v>
-      </c>
-      <c r="JE4" t="n">
+      <c r="JF4" t="n">
+        <v>14253404</v>
+      </c>
+      <c r="JG4" t="n">
         <v>228601</v>
       </c>
-      <c r="JF4" t="n">
+      <c r="JH4" t="n">
         <v>250000000</v>
       </c>
-      <c r="JG4" t="n">
+      <c r="JI4" t="n">
         <v>7676833</v>
       </c>
-      <c r="JH4" t="n">
+      <c r="JJ4" t="n">
         <v>94566</v>
       </c>
-      <c r="JI4" t="n">
+      <c r="JK4" t="n">
         <v>1835592</v>
       </c>
-      <c r="JJ4" t="inlineStr"/>
-      <c r="JK4" t="n">
+      <c r="JL4" t="inlineStr"/>
+      <c r="JM4" t="n">
         <v>570000</v>
       </c>
-      <c r="JL4" t="n">
+      <c r="JN4" t="n">
         <v>366341</v>
       </c>
-      <c r="JM4" t="inlineStr"/>
-      <c r="JN4" t="n">
-        <v>7588261</v>
-      </c>
-      <c r="JO4" t="n">
+      <c r="JO4" t="inlineStr"/>
+      <c r="JP4" t="n">
         <v>3000000</v>
       </c>
-      <c r="JP4" t="n">
+      <c r="JQ4" t="n">
         <v>5494029</v>
       </c>
-      <c r="JQ4" t="inlineStr"/>
       <c r="JR4" t="inlineStr"/>
-      <c r="JS4" t="n">
+      <c r="JS4" t="inlineStr"/>
+      <c r="JT4" t="n">
         <v>575361655</v>
       </c>
-      <c r="JT4" t="n">
+      <c r="JU4" t="n">
         <v>2849182</v>
       </c>
-      <c r="JU4" t="inlineStr"/>
-      <c r="JV4" t="n">
+      <c r="JV4" t="inlineStr"/>
+      <c r="JW4" t="n">
         <v>55881398</v>
       </c>
-      <c r="JW4" t="inlineStr"/>
-      <c r="JX4" t="n">
+      <c r="JX4" t="inlineStr"/>
+      <c r="JY4" t="n">
         <v>536225</v>
       </c>
-      <c r="JY4" t="inlineStr"/>
-      <c r="JZ4" t="n">
+      <c r="JZ4" t="inlineStr"/>
+      <c r="KA4" t="n">
         <v>2000000</v>
       </c>
-      <c r="KA4" t="n">
+      <c r="KB4" t="n">
         <v>31084087</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>12551286</v>
       </c>
       <c r="KC4" t="inlineStr"/>
       <c r="KD4" t="n">
@@ -8364,13 +8364,13 @@
         <v>32947039</v>
       </c>
       <c r="KM4" t="n">
+        <v>40199500</v>
+      </c>
+      <c r="KN4" t="n">
         <v>2489743</v>
       </c>
-      <c r="KN4" t="n">
+      <c r="KO4" t="n">
         <v>14748022</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>40199500</v>
       </c>
       <c r="KP4" t="n">
         <v>339400</v>
@@ -8638,17 +8638,17 @@
         <v>500000</v>
       </c>
       <c r="OG4" t="n">
+        <v>8226596</v>
+      </c>
+      <c r="OH4" t="inlineStr"/>
+      <c r="OI4" t="n">
+        <v>835533116</v>
+      </c>
+      <c r="OJ4" t="n">
+        <v>656576229</v>
+      </c>
+      <c r="OK4" t="n">
         <v>314736</v>
-      </c>
-      <c r="OH4" t="n">
-        <v>8226596</v>
-      </c>
-      <c r="OI4" t="inlineStr"/>
-      <c r="OJ4" t="n">
-        <v>835533116</v>
-      </c>
-      <c r="OK4" t="n">
-        <v>656576229</v>
       </c>
       <c r="OL4" t="n">
         <v>99715299</v>
@@ -8702,10 +8702,10 @@
       <c r="PC4" t="n">
         <v>1355816</v>
       </c>
-      <c r="PD4" t="inlineStr"/>
-      <c r="PE4" t="n">
+      <c r="PD4" t="n">
         <v>290150014</v>
       </c>
+      <c r="PE4" t="inlineStr"/>
       <c r="PF4" t="inlineStr"/>
       <c r="PG4" t="n">
         <v>10800000</v>
@@ -8753,10 +8753,10 @@
       <c r="PV4" t="n">
         <v>8938054</v>
       </c>
-      <c r="PW4" t="inlineStr"/>
-      <c r="PX4" t="n">
+      <c r="PW4" t="n">
         <v>180000000</v>
       </c>
+      <c r="PX4" t="inlineStr"/>
       <c r="PY4" t="n">
         <v>1232605692</v>
       </c>
@@ -10096,68 +10096,68 @@
         <v>5319693</v>
       </c>
       <c r="JC5" t="n">
+        <v>6883632</v>
+      </c>
+      <c r="JD5" t="n">
+        <v>14094719</v>
+      </c>
+      <c r="JE5" t="n">
         <v>118584990</v>
       </c>
-      <c r="JD5" t="n">
+      <c r="JF5" t="n">
         <v>1770000000</v>
       </c>
-      <c r="JE5" t="n">
+      <c r="JG5" t="n">
         <v>211515</v>
       </c>
-      <c r="JF5" t="n">
+      <c r="JH5" t="n">
         <v>250000000</v>
       </c>
-      <c r="JG5" t="n">
+      <c r="JI5" t="n">
         <v>3749399</v>
       </c>
-      <c r="JH5" t="n">
+      <c r="JJ5" t="n">
         <v>39085</v>
       </c>
-      <c r="JI5" t="n">
+      <c r="JK5" t="n">
         <v>1623381</v>
       </c>
-      <c r="JJ5" t="inlineStr"/>
-      <c r="JK5" t="n">
+      <c r="JL5" t="inlineStr"/>
+      <c r="JM5" t="n">
         <v>623000</v>
       </c>
-      <c r="JL5" t="n">
+      <c r="JN5" t="n">
         <v>391121</v>
       </c>
-      <c r="JM5" t="inlineStr"/>
-      <c r="JN5" t="n">
-        <v>6883632</v>
-      </c>
-      <c r="JO5" t="n">
+      <c r="JO5" t="inlineStr"/>
+      <c r="JP5" t="n">
         <v>7294797</v>
       </c>
-      <c r="JP5" t="n">
+      <c r="JQ5" t="n">
         <v>3777823</v>
       </c>
-      <c r="JQ5" t="inlineStr"/>
       <c r="JR5" t="inlineStr"/>
-      <c r="JS5" t="n">
+      <c r="JS5" t="inlineStr"/>
+      <c r="JT5" t="n">
         <v>25927449</v>
       </c>
-      <c r="JT5" t="n">
+      <c r="JU5" t="n">
         <v>2785616</v>
       </c>
-      <c r="JU5" t="inlineStr"/>
-      <c r="JV5" t="n">
+      <c r="JV5" t="inlineStr"/>
+      <c r="JW5" t="n">
         <v>69011459</v>
       </c>
-      <c r="JW5" t="inlineStr"/>
-      <c r="JX5" t="n">
+      <c r="JX5" t="inlineStr"/>
+      <c r="JY5" t="n">
         <v>78991</v>
       </c>
-      <c r="JY5" t="inlineStr"/>
-      <c r="JZ5" t="n">
+      <c r="JZ5" t="inlineStr"/>
+      <c r="KA5" t="n">
         <v>2000000</v>
       </c>
-      <c r="KA5" t="n">
+      <c r="KB5" t="n">
         <v>29778685</v>
-      </c>
-      <c r="KB5" t="n">
-        <v>14094719</v>
       </c>
       <c r="KC5" t="inlineStr"/>
       <c r="KD5" t="n">
@@ -10182,13 +10182,13 @@
         <v>4398848516</v>
       </c>
       <c r="KM5" t="n">
+        <v>60669399</v>
+      </c>
+      <c r="KN5" t="n">
         <v>16757022</v>
       </c>
-      <c r="KN5" t="n">
+      <c r="KO5" t="n">
         <v>3511151484</v>
-      </c>
-      <c r="KO5" t="n">
-        <v>60669399</v>
       </c>
       <c r="KP5" t="n">
         <v>1403275</v>
@@ -10448,17 +10448,17 @@
         <v>500000</v>
       </c>
       <c r="OG5" t="n">
+        <v>1387432</v>
+      </c>
+      <c r="OH5" t="inlineStr"/>
+      <c r="OI5" t="n">
+        <v>1669653</v>
+      </c>
+      <c r="OJ5" t="n">
+        <v>471395665</v>
+      </c>
+      <c r="OK5" t="n">
         <v>62035</v>
-      </c>
-      <c r="OH5" t="n">
-        <v>1387432</v>
-      </c>
-      <c r="OI5" t="inlineStr"/>
-      <c r="OJ5" t="n">
-        <v>1669653</v>
-      </c>
-      <c r="OK5" t="n">
-        <v>471395665</v>
       </c>
       <c r="OL5" t="n">
         <v>102066345</v>
@@ -10500,7 +10500,7 @@
         <v>2627403</v>
       </c>
       <c r="OY5" t="n">
-        <v>102816570</v>
+        <v>220000</v>
       </c>
       <c r="OZ5" t="n">
         <v>483124</v>
@@ -10514,10 +10514,10 @@
       <c r="PC5" t="n">
         <v>470492</v>
       </c>
-      <c r="PD5" t="inlineStr"/>
-      <c r="PE5" t="n">
+      <c r="PD5" t="n">
         <v>304048202</v>
       </c>
+      <c r="PE5" t="inlineStr"/>
       <c r="PF5" t="inlineStr"/>
       <c r="PG5" t="n">
         <v>21300000</v>
@@ -10560,15 +10560,15 @@
         <v>1491925301</v>
       </c>
       <c r="PU5" t="n">
-        <v>7810000000</v>
+        <v>680000000</v>
       </c>
       <c r="PV5" t="n">
         <v>8308387</v>
       </c>
-      <c r="PW5" t="inlineStr"/>
-      <c r="PX5" t="n">
+      <c r="PW5" t="n">
         <v>192000000</v>
       </c>
+      <c r="PX5" t="inlineStr"/>
       <c r="PY5" t="n">
         <v>1810842018</v>
       </c>
@@ -11910,72 +11910,72 @@
         <v>5452685</v>
       </c>
       <c r="JC6" t="n">
+        <v>7188036</v>
+      </c>
+      <c r="JD6" t="n">
+        <v>14917446</v>
+      </c>
+      <c r="JE6" t="n">
         <v>1478997</v>
       </c>
-      <c r="JD6" t="n">
-        <v>2586645</v>
-      </c>
-      <c r="JE6" t="n">
+      <c r="JF6" t="n">
+        <v>227000000</v>
+      </c>
+      <c r="JG6" t="n">
         <v>243066</v>
       </c>
-      <c r="JF6" t="n">
+      <c r="JH6" t="n">
         <v>8905601</v>
       </c>
-      <c r="JG6" t="n">
+      <c r="JI6" t="n">
         <v>2723872</v>
       </c>
-      <c r="JH6" t="n">
+      <c r="JJ6" t="n">
         <v>33062</v>
       </c>
-      <c r="JI6" t="inlineStr"/>
-      <c r="JJ6" t="n">
+      <c r="JK6" t="inlineStr"/>
+      <c r="JL6" t="n">
         <v>807421</v>
       </c>
-      <c r="JK6" t="n">
+      <c r="JM6" t="n">
         <v>413000</v>
       </c>
-      <c r="JL6" t="n">
+      <c r="JN6" t="n">
         <v>554698</v>
       </c>
-      <c r="JM6" t="inlineStr"/>
-      <c r="JN6" t="n">
-        <v>7188036</v>
-      </c>
-      <c r="JO6" t="n">
+      <c r="JO6" t="inlineStr"/>
+      <c r="JP6" t="n">
         <v>432225</v>
       </c>
-      <c r="JP6" t="n">
+      <c r="JQ6" t="n">
         <v>3495076</v>
       </c>
-      <c r="JQ6" t="n">
+      <c r="JR6" t="n">
         <v>870493</v>
       </c>
-      <c r="JR6" t="n">
+      <c r="JS6" t="n">
         <v>794857</v>
       </c>
-      <c r="JS6" t="n">
+      <c r="JT6" t="n">
         <v>513618519</v>
       </c>
-      <c r="JT6" t="n">
+      <c r="JU6" t="n">
         <v>2651820</v>
       </c>
-      <c r="JU6" t="n">
+      <c r="JV6" t="n">
         <v>143189</v>
       </c>
-      <c r="JV6" t="n">
+      <c r="JW6" t="n">
         <v>97208351</v>
       </c>
-      <c r="JW6" t="inlineStr"/>
-      <c r="JX6" t="n">
+      <c r="JX6" t="inlineStr"/>
+      <c r="JY6" t="n">
         <v>365395</v>
       </c>
-      <c r="JY6" t="inlineStr"/>
       <c r="JZ6" t="inlineStr"/>
-      <c r="KA6" t="n">
+      <c r="KA6" t="inlineStr"/>
+      <c r="KB6" t="n">
         <v>30911247</v>
-      </c>
-      <c r="KB6" t="n">
-        <v>14917446</v>
       </c>
       <c r="KC6" t="inlineStr"/>
       <c r="KD6" t="n">
@@ -11997,16 +11997,16 @@
       </c>
       <c r="KK6" t="inlineStr"/>
       <c r="KL6" t="n">
-        <v>32739080</v>
+        <v>2635014</v>
       </c>
       <c r="KM6" t="n">
+        <v>84407071</v>
+      </c>
+      <c r="KN6" t="n">
         <v>16793713</v>
       </c>
-      <c r="KN6" t="n">
+      <c r="KO6" t="n">
         <v>2184708</v>
-      </c>
-      <c r="KO6" t="n">
-        <v>84407071</v>
       </c>
       <c r="KP6" t="n">
         <v>180277</v>
@@ -12266,19 +12266,19 @@
         <v>2093</v>
       </c>
       <c r="OG6" t="n">
+        <v>1659910</v>
+      </c>
+      <c r="OH6" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="OI6" t="n">
+        <v>1990708</v>
+      </c>
+      <c r="OJ6" t="n">
+        <v>303826447</v>
+      </c>
+      <c r="OK6" t="n">
         <v>68050</v>
-      </c>
-      <c r="OH6" t="n">
-        <v>1659910</v>
-      </c>
-      <c r="OI6" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="OJ6" t="n">
-        <v>1990708</v>
-      </c>
-      <c r="OK6" t="n">
-        <v>303826447</v>
       </c>
       <c r="OL6" t="n">
         <v>111480417</v>
@@ -12308,7 +12308,7 @@
         <v>3806708</v>
       </c>
       <c r="OU6" t="n">
-        <v>7182184</v>
+        <v>21097925</v>
       </c>
       <c r="OV6" t="n">
         <v>61900000</v>
@@ -12320,7 +12320,7 @@
         <v>3387993</v>
       </c>
       <c r="OY6" t="n">
-        <v>300000</v>
+        <v>7295767</v>
       </c>
       <c r="OZ6" t="n">
         <v>166597</v>
@@ -12334,13 +12334,13 @@
       <c r="PC6" t="n">
         <v>210795</v>
       </c>
-      <c r="PD6" t="inlineStr"/>
+      <c r="PD6" t="n">
+        <v>277423172</v>
+      </c>
       <c r="PE6" t="n">
-        <v>277423172</v>
-      </c>
-      <c r="PF6" t="n">
         <v>7600000</v>
       </c>
+      <c r="PF6" t="inlineStr"/>
       <c r="PG6" t="n">
         <v>2200000</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>1252255349</v>
       </c>
       <c r="PQ6" t="n">
-        <v>411000000</v>
+        <v>362000000</v>
       </c>
       <c r="PR6" t="n">
         <v>485000000</v>
@@ -12387,10 +12387,10 @@
       <c r="PV6" t="n">
         <v>8085422</v>
       </c>
-      <c r="PW6" t="inlineStr"/>
-      <c r="PX6" t="n">
+      <c r="PW6" t="n">
         <v>205000000</v>
       </c>
+      <c r="PX6" t="inlineStr"/>
       <c r="PY6" t="n">
         <v>639813</v>
       </c>
@@ -13768,66 +13768,66 @@
         <v>5452685</v>
       </c>
       <c r="JC7" t="n">
+        <v>169132489</v>
+      </c>
+      <c r="JD7" t="n">
+        <v>38132985</v>
+      </c>
+      <c r="JE7" t="n">
         <v>2693429</v>
       </c>
-      <c r="JD7" t="n">
+      <c r="JF7" t="n">
         <v>457026623</v>
       </c>
-      <c r="JE7" t="inlineStr"/>
-      <c r="JF7" t="n">
+      <c r="JG7" t="inlineStr"/>
+      <c r="JH7" t="n">
         <v>76717463</v>
       </c>
-      <c r="JG7" t="inlineStr"/>
-      <c r="JH7" t="inlineStr"/>
       <c r="JI7" t="inlineStr"/>
-      <c r="JJ7" t="n">
+      <c r="JJ7" t="inlineStr"/>
+      <c r="JK7" t="inlineStr"/>
+      <c r="JL7" t="n">
         <v>4134032</v>
       </c>
-      <c r="JK7" t="n">
+      <c r="JM7" t="n">
         <v>518000</v>
       </c>
-      <c r="JL7" t="n">
+      <c r="JN7" t="n">
         <v>698559</v>
       </c>
-      <c r="JM7" t="inlineStr"/>
-      <c r="JN7" t="n">
-        <v>169132489</v>
-      </c>
-      <c r="JO7" t="n">
+      <c r="JO7" t="inlineStr"/>
+      <c r="JP7" t="n">
         <v>528483</v>
       </c>
-      <c r="JP7" t="n">
+      <c r="JQ7" t="n">
         <v>4561342</v>
       </c>
-      <c r="JQ7" t="n">
+      <c r="JR7" t="n">
         <v>4535015</v>
       </c>
-      <c r="JR7" t="n">
+      <c r="JS7" t="n">
         <v>5018755</v>
       </c>
-      <c r="JS7" t="n">
+      <c r="JT7" t="n">
         <v>536954038</v>
       </c>
-      <c r="JT7" t="n">
+      <c r="JU7" t="n">
         <v>751645</v>
       </c>
-      <c r="JU7" t="n">
+      <c r="JV7" t="n">
         <v>844390</v>
       </c>
-      <c r="JV7" t="n">
+      <c r="JW7" t="n">
         <v>95389149</v>
       </c>
-      <c r="JW7" t="inlineStr"/>
-      <c r="JX7" t="n">
+      <c r="JX7" t="inlineStr"/>
+      <c r="JY7" t="n">
         <v>1380404</v>
       </c>
-      <c r="JY7" t="inlineStr"/>
       <c r="JZ7" t="inlineStr"/>
-      <c r="KA7" t="n">
+      <c r="KA7" t="inlineStr"/>
+      <c r="KB7" t="n">
         <v>80436355</v>
-      </c>
-      <c r="KB7" t="n">
-        <v>38132985</v>
       </c>
       <c r="KC7" t="inlineStr"/>
       <c r="KD7" t="n">
@@ -13849,16 +13849,16 @@
       </c>
       <c r="KK7" t="inlineStr"/>
       <c r="KL7" t="n">
-        <v>301998326</v>
+        <v>33002374</v>
       </c>
       <c r="KM7" t="n">
+        <v>59915680</v>
+      </c>
+      <c r="KN7" t="n">
         <v>14267073</v>
       </c>
-      <c r="KN7" t="n">
+      <c r="KO7" t="n">
         <v>8528423</v>
-      </c>
-      <c r="KO7" t="n">
-        <v>59915680</v>
       </c>
       <c r="KP7" t="n">
         <v>649933</v>
@@ -14120,17 +14120,17 @@
         <v>1711</v>
       </c>
       <c r="OG7" t="n">
+        <v>357031</v>
+      </c>
+      <c r="OH7" t="inlineStr"/>
+      <c r="OI7" t="n">
+        <v>46912183</v>
+      </c>
+      <c r="OJ7" t="n">
+        <v>205098880</v>
+      </c>
+      <c r="OK7" t="n">
         <v>96841</v>
-      </c>
-      <c r="OH7" t="n">
-        <v>357031</v>
-      </c>
-      <c r="OI7" t="inlineStr"/>
-      <c r="OJ7" t="n">
-        <v>46912183</v>
-      </c>
-      <c r="OK7" t="n">
-        <v>205098880</v>
       </c>
       <c r="OL7" t="n">
         <v>95044</v>
@@ -14145,7 +14145,7 @@
         <v>154698</v>
       </c>
       <c r="OP7" t="n">
-        <v>34277027</v>
+        <v>326097186</v>
       </c>
       <c r="OQ7" t="n">
         <v>14214</v>
@@ -14184,13 +14184,13 @@
       <c r="PC7" t="n">
         <v>116638</v>
       </c>
-      <c r="PD7" t="inlineStr"/>
+      <c r="PD7" t="n">
+        <v>289436421</v>
+      </c>
       <c r="PE7" t="n">
-        <v>289436421</v>
-      </c>
-      <c r="PF7" t="n">
         <v>11400000</v>
       </c>
+      <c r="PF7" t="inlineStr"/>
       <c r="PG7" t="n">
         <v>1014000</v>
       </c>
@@ -14235,10 +14235,10 @@
       <c r="PV7" t="n">
         <v>65493244</v>
       </c>
-      <c r="PW7" t="inlineStr"/>
-      <c r="PX7" t="n">
+      <c r="PW7" t="n">
         <v>232000000</v>
       </c>
+      <c r="PX7" t="inlineStr"/>
       <c r="PY7" t="n">
         <v>4242929753</v>
       </c>
@@ -15620,66 +15620,66 @@
         <v>5612276</v>
       </c>
       <c r="JC8" t="n">
+        <v>8583718</v>
+      </c>
+      <c r="JD8" t="n">
+        <v>62981536</v>
+      </c>
+      <c r="JE8" t="n">
         <v>436636</v>
       </c>
-      <c r="JD8" t="n">
-        <v>1452720</v>
-      </c>
-      <c r="JE8" t="inlineStr"/>
       <c r="JF8" t="n">
+        <v>43492568</v>
+      </c>
+      <c r="JG8" t="inlineStr"/>
+      <c r="JH8" t="n">
         <v>157410488</v>
       </c>
-      <c r="JG8" t="inlineStr"/>
-      <c r="JH8" t="inlineStr"/>
       <c r="JI8" t="inlineStr"/>
-      <c r="JJ8" t="n">
+      <c r="JJ8" t="inlineStr"/>
+      <c r="JK8" t="inlineStr"/>
+      <c r="JL8" t="n">
         <v>781293</v>
       </c>
-      <c r="JK8" t="n">
+      <c r="JM8" t="n">
         <v>28809000</v>
       </c>
-      <c r="JL8" t="n">
+      <c r="JN8" t="n">
         <v>706157</v>
       </c>
-      <c r="JM8" t="inlineStr"/>
-      <c r="JN8" t="n">
-        <v>8583718</v>
-      </c>
-      <c r="JO8" t="n">
+      <c r="JO8" t="inlineStr"/>
+      <c r="JP8" t="n">
         <v>496458</v>
       </c>
-      <c r="JP8" t="n">
+      <c r="JQ8" t="n">
         <v>5924238</v>
       </c>
-      <c r="JQ8" t="n">
+      <c r="JR8" t="n">
         <v>1128161</v>
       </c>
-      <c r="JR8" t="n">
+      <c r="JS8" t="n">
         <v>1305179</v>
       </c>
-      <c r="JS8" t="n">
+      <c r="JT8" t="n">
         <v>189405453</v>
       </c>
-      <c r="JT8" t="n">
+      <c r="JU8" t="n">
         <v>155117</v>
       </c>
-      <c r="JU8" t="n">
+      <c r="JV8" t="n">
         <v>56787</v>
       </c>
-      <c r="JV8" t="n">
+      <c r="JW8" t="n">
         <v>61655050</v>
       </c>
-      <c r="JW8" t="inlineStr"/>
-      <c r="JX8" t="n">
+      <c r="JX8" t="inlineStr"/>
+      <c r="JY8" t="n">
         <v>1009312</v>
       </c>
-      <c r="JY8" t="inlineStr"/>
       <c r="JZ8" t="inlineStr"/>
-      <c r="KA8" t="n">
+      <c r="KA8" t="inlineStr"/>
+      <c r="KB8" t="n">
         <v>147167986</v>
-      </c>
-      <c r="KB8" t="n">
-        <v>62981536</v>
       </c>
       <c r="KC8" t="inlineStr"/>
       <c r="KD8" t="n">
@@ -15704,13 +15704,13 @@
         <v>841780297</v>
       </c>
       <c r="KM8" t="n">
+        <v>100000000</v>
+      </c>
+      <c r="KN8" t="n">
         <v>7065701</v>
       </c>
-      <c r="KN8" t="n">
+      <c r="KO8" t="n">
         <v>6319796</v>
-      </c>
-      <c r="KO8" t="n">
-        <v>100000000</v>
       </c>
       <c r="KP8" t="n">
         <v>597978</v>
@@ -15972,16 +15972,16 @@
         <v>1621</v>
       </c>
       <c r="OG8" t="inlineStr"/>
-      <c r="OH8" t="inlineStr"/>
+      <c r="OH8" t="n">
+        <v>78800000</v>
+      </c>
       <c r="OI8" t="n">
-        <v>78800000</v>
+        <v>42971271</v>
       </c>
       <c r="OJ8" t="n">
-        <v>42971271</v>
-      </c>
-      <c r="OK8" t="n">
         <v>147251978</v>
       </c>
+      <c r="OK8" t="inlineStr"/>
       <c r="OL8" t="n">
         <v>74742601</v>
       </c>
@@ -15998,7 +15998,7 @@
         <v>318977130</v>
       </c>
       <c r="OQ8" t="n">
-        <v>5537911</v>
+        <v>7641</v>
       </c>
       <c r="OR8" t="n">
         <v>8709800</v>
@@ -16022,7 +16022,7 @@
         <v>681494</v>
       </c>
       <c r="OY8" t="n">
-        <v>300000</v>
+        <v>45085026</v>
       </c>
       <c r="OZ8" t="inlineStr"/>
       <c r="PA8" t="inlineStr"/>
@@ -16032,13 +16032,13 @@
       <c r="PC8" t="n">
         <v>141574</v>
       </c>
-      <c r="PD8" t="inlineStr"/>
+      <c r="PD8" t="n">
+        <v>301683902</v>
+      </c>
       <c r="PE8" t="n">
-        <v>301683902</v>
-      </c>
-      <c r="PF8" t="n">
         <v>14500000</v>
       </c>
+      <c r="PF8" t="inlineStr"/>
       <c r="PG8" t="n">
         <v>440000</v>
       </c>
@@ -16083,10 +16083,10 @@
       <c r="PV8" t="n">
         <v>30307331</v>
       </c>
-      <c r="PW8" t="inlineStr"/>
-      <c r="PX8" t="n">
+      <c r="PW8" t="n">
         <v>190000000</v>
       </c>
+      <c r="PX8" t="inlineStr"/>
       <c r="PY8" t="n">
         <v>1888630852</v>
       </c>
@@ -17490,66 +17490,66 @@
         <v>5585678</v>
       </c>
       <c r="JC9" t="n">
+        <v>10191642</v>
+      </c>
+      <c r="JD9" t="n">
+        <v>65689351</v>
+      </c>
+      <c r="JE9" t="n">
         <v>135511</v>
       </c>
-      <c r="JD9" t="n">
+      <c r="JF9" t="n">
         <v>178647868</v>
       </c>
-      <c r="JE9" t="inlineStr"/>
-      <c r="JF9" t="n">
+      <c r="JG9" t="inlineStr"/>
+      <c r="JH9" t="n">
         <v>11967654</v>
       </c>
-      <c r="JG9" t="inlineStr"/>
-      <c r="JH9" t="inlineStr"/>
       <c r="JI9" t="inlineStr"/>
-      <c r="JJ9" t="n">
+      <c r="JJ9" t="inlineStr"/>
+      <c r="JK9" t="inlineStr"/>
+      <c r="JL9" t="n">
         <v>406155</v>
       </c>
-      <c r="JK9" t="n">
-        <v>22374000</v>
-      </c>
-      <c r="JL9" t="n">
+      <c r="JM9" t="n">
+        <v>114582000</v>
+      </c>
+      <c r="JN9" t="n">
         <v>232906</v>
       </c>
-      <c r="JM9" t="inlineStr"/>
-      <c r="JN9" t="n">
-        <v>10191642</v>
-      </c>
-      <c r="JO9" t="n">
+      <c r="JO9" t="inlineStr"/>
+      <c r="JP9" t="n">
         <v>456579</v>
       </c>
-      <c r="JP9" t="n">
+      <c r="JQ9" t="n">
         <v>10268345</v>
       </c>
-      <c r="JQ9" t="n">
+      <c r="JR9" t="n">
         <v>405620</v>
       </c>
-      <c r="JR9" t="n">
+      <c r="JS9" t="n">
         <v>737972</v>
       </c>
-      <c r="JS9" t="n">
+      <c r="JT9" t="n">
         <v>643275026</v>
       </c>
-      <c r="JT9" t="n">
+      <c r="JU9" t="n">
         <v>96619</v>
       </c>
-      <c r="JU9" t="n">
+      <c r="JV9" t="n">
         <v>49190</v>
       </c>
-      <c r="JV9" t="n">
+      <c r="JW9" t="n">
         <v>43368038</v>
       </c>
-      <c r="JW9" t="inlineStr"/>
-      <c r="JX9" t="n">
+      <c r="JX9" t="inlineStr"/>
+      <c r="JY9" t="n">
         <v>2012832</v>
       </c>
-      <c r="JY9" t="inlineStr"/>
       <c r="JZ9" t="inlineStr"/>
-      <c r="KA9" t="n">
+      <c r="KA9" t="inlineStr"/>
+      <c r="KB9" t="n">
         <v>148593885</v>
-      </c>
-      <c r="KB9" t="n">
-        <v>65689351</v>
       </c>
       <c r="KC9" t="inlineStr"/>
       <c r="KD9" t="n">
@@ -17574,13 +17574,13 @@
         <v>831321912</v>
       </c>
       <c r="KM9" t="n">
+        <v>125000000</v>
+      </c>
+      <c r="KN9" t="n">
         <v>5640672</v>
       </c>
-      <c r="KN9" t="n">
+      <c r="KO9" t="n">
         <v>8522131</v>
-      </c>
-      <c r="KO9" t="n">
-        <v>125000000</v>
       </c>
       <c r="KP9" t="n">
         <v>5087817</v>
@@ -17840,16 +17840,16 @@
         <v>1669</v>
       </c>
       <c r="OG9" t="inlineStr"/>
-      <c r="OH9" t="inlineStr"/>
+      <c r="OH9" t="n">
+        <v>78800000</v>
+      </c>
       <c r="OI9" t="n">
-        <v>78800000</v>
+        <v>40440704</v>
       </c>
       <c r="OJ9" t="n">
-        <v>40440704</v>
-      </c>
-      <c r="OK9" t="n">
         <v>98102051</v>
       </c>
+      <c r="OK9" t="inlineStr"/>
       <c r="OL9" t="n">
         <v>84138617</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>48241</v>
       </c>
       <c r="OY9" t="n">
-        <v>200000</v>
+        <v>42655532</v>
       </c>
       <c r="OZ9" t="inlineStr"/>
       <c r="PA9" t="n">
@@ -17902,13 +17902,13 @@
       <c r="PC9" t="n">
         <v>60318</v>
       </c>
-      <c r="PD9" t="inlineStr"/>
+      <c r="PD9" t="n">
+        <v>333997648</v>
+      </c>
       <c r="PE9" t="n">
-        <v>333997648</v>
-      </c>
-      <c r="PF9" t="n">
         <v>12600000</v>
       </c>
+      <c r="PF9" t="inlineStr"/>
       <c r="PG9" t="n">
         <v>430000</v>
       </c>
@@ -17925,14 +17925,14 @@
         <v>640646302</v>
       </c>
       <c r="PL9" t="n">
-        <v>2286268267</v>
+        <v>160632756</v>
       </c>
       <c r="PM9" t="n">
         <v>802000000</v>
       </c>
       <c r="PN9" t="inlineStr"/>
       <c r="PO9" t="n">
-        <v>45613597</v>
+        <v>44538002</v>
       </c>
       <c r="PP9" t="inlineStr"/>
       <c r="PQ9" t="n">
@@ -17947,10 +17947,10 @@
         <v>10142000000</v>
       </c>
       <c r="PV9" t="inlineStr"/>
-      <c r="PW9" t="inlineStr"/>
-      <c r="PX9" t="n">
+      <c r="PW9" t="n">
         <v>200000000</v>
       </c>
+      <c r="PX9" t="inlineStr"/>
       <c r="PY9" t="n">
         <v>1502857294</v>
       </c>
@@ -19338,66 +19338,66 @@
         <v>5665473</v>
       </c>
       <c r="JC10" t="n">
+        <v>90000000</v>
+      </c>
+      <c r="JD10" t="n">
+        <v>92265876</v>
+      </c>
+      <c r="JE10" t="n">
         <v>676760</v>
       </c>
-      <c r="JD10" t="n">
-        <v>45000000</v>
-      </c>
-      <c r="JE10" t="inlineStr"/>
       <c r="JF10" t="n">
-        <v>737644370</v>
+        <v>577000000</v>
       </c>
       <c r="JG10" t="inlineStr"/>
-      <c r="JH10" t="inlineStr"/>
+      <c r="JH10" t="n">
+        <v>40027214</v>
+      </c>
       <c r="JI10" t="inlineStr"/>
-      <c r="JJ10" t="n">
+      <c r="JJ10" t="inlineStr"/>
+      <c r="JK10" t="inlineStr"/>
+      <c r="JL10" t="n">
         <v>2550152</v>
       </c>
-      <c r="JK10" t="n">
-        <v>83835000</v>
-      </c>
-      <c r="JL10" t="n">
+      <c r="JM10" t="n">
+        <v>17010000</v>
+      </c>
+      <c r="JN10" t="n">
         <v>414347</v>
       </c>
-      <c r="JM10" t="inlineStr"/>
-      <c r="JN10" t="n">
-        <v>13488938</v>
-      </c>
-      <c r="JO10" t="n">
+      <c r="JO10" t="inlineStr"/>
+      <c r="JP10" t="n">
         <v>285935</v>
       </c>
-      <c r="JP10" t="n">
+      <c r="JQ10" t="n">
         <v>13351907</v>
       </c>
-      <c r="JQ10" t="n">
+      <c r="JR10" t="n">
         <v>579054</v>
       </c>
-      <c r="JR10" t="n">
+      <c r="JS10" t="n">
         <v>2789743</v>
       </c>
-      <c r="JS10" t="n">
+      <c r="JT10" t="n">
         <v>716878580</v>
       </c>
-      <c r="JT10" t="n">
+      <c r="JU10" t="n">
         <v>10644811</v>
       </c>
-      <c r="JU10" t="n">
+      <c r="JV10" t="n">
         <v>6729847</v>
       </c>
-      <c r="JV10" t="n">
+      <c r="JW10" t="n">
         <v>29173065</v>
       </c>
-      <c r="JW10" t="inlineStr"/>
-      <c r="JX10" t="n">
+      <c r="JX10" t="inlineStr"/>
+      <c r="JY10" t="n">
         <v>2127368</v>
       </c>
-      <c r="JY10" t="inlineStr"/>
       <c r="JZ10" t="inlineStr"/>
-      <c r="KA10" t="n">
+      <c r="KA10" t="inlineStr"/>
+      <c r="KB10" t="n">
         <v>166266074</v>
-      </c>
-      <c r="KB10" t="n">
-        <v>92265876</v>
       </c>
       <c r="KC10" t="inlineStr"/>
       <c r="KD10" t="n">
@@ -19419,22 +19419,22 @@
       </c>
       <c r="KK10" t="inlineStr"/>
       <c r="KL10" t="n">
-        <v>5609215</v>
+        <v>819295750</v>
       </c>
       <c r="KM10" t="n">
-        <v>4714132</v>
+        <v>145000000</v>
       </c>
       <c r="KN10" t="n">
+        <v>22981392</v>
+      </c>
+      <c r="KO10" t="n">
         <v>7956265</v>
       </c>
-      <c r="KO10" t="n">
-        <v>145000000</v>
-      </c>
       <c r="KP10" t="n">
-        <v>409256</v>
+        <v>818512</v>
       </c>
       <c r="KQ10" t="n">
-        <v>172018608</v>
+        <v>35000000</v>
       </c>
       <c r="KR10" t="n">
         <v>22138475</v>
@@ -19456,7 +19456,7 @@
       </c>
       <c r="KZ10" t="inlineStr"/>
       <c r="LA10" t="n">
-        <v>160648166</v>
+        <v>266834805</v>
       </c>
       <c r="LB10" t="inlineStr"/>
       <c r="LC10" t="inlineStr"/>
@@ -19682,16 +19682,16 @@
         <v>1526</v>
       </c>
       <c r="OG10" t="inlineStr"/>
-      <c r="OH10" t="inlineStr"/>
+      <c r="OH10" t="n">
+        <v>78800000</v>
+      </c>
       <c r="OI10" t="n">
-        <v>78800000</v>
+        <v>44179824</v>
       </c>
       <c r="OJ10" t="n">
-        <v>44179824</v>
-      </c>
-      <c r="OK10" t="n">
         <v>90662127</v>
       </c>
+      <c r="OK10" t="inlineStr"/>
       <c r="OL10" t="n">
         <v>77599532</v>
       </c>
@@ -19742,13 +19742,13 @@
       <c r="PC10" t="n">
         <v>78544</v>
       </c>
-      <c r="PD10" t="inlineStr"/>
+      <c r="PD10" t="n">
+        <v>354555426</v>
+      </c>
       <c r="PE10" t="n">
-        <v>354555426</v>
-      </c>
-      <c r="PF10" t="n">
         <v>11300000</v>
       </c>
+      <c r="PF10" t="inlineStr"/>
       <c r="PG10" t="n">
         <v>260000</v>
       </c>
@@ -19787,10 +19787,10 @@
         <v>9867000000</v>
       </c>
       <c r="PV10" t="inlineStr"/>
-      <c r="PW10" t="inlineStr"/>
-      <c r="PX10" t="n">
+      <c r="PW10" t="n">
         <v>594000000</v>
       </c>
+      <c r="PX10" t="inlineStr"/>
       <c r="PY10" t="n">
         <v>1381465695</v>
       </c>
@@ -21178,68 +21178,68 @@
         <v>6057047</v>
       </c>
       <c r="JC11" t="n">
+        <v>107000000</v>
+      </c>
+      <c r="JD11" t="n">
+        <v>90363325</v>
+      </c>
+      <c r="JE11" t="n">
         <v>1710297</v>
       </c>
-      <c r="JD11" t="n">
-        <v>658000000</v>
-      </c>
-      <c r="JE11" t="inlineStr"/>
       <c r="JF11" t="n">
-        <v>99968047</v>
+        <v>47000000</v>
       </c>
       <c r="JG11" t="inlineStr"/>
-      <c r="JH11" t="inlineStr"/>
+      <c r="JH11" t="n">
+        <v>7255745</v>
+      </c>
       <c r="JI11" t="inlineStr"/>
-      <c r="JJ11" t="n">
+      <c r="JJ11" t="inlineStr"/>
+      <c r="JK11" t="inlineStr"/>
+      <c r="JL11" t="n">
         <v>6768485</v>
       </c>
-      <c r="JK11" t="n">
+      <c r="JM11" t="n">
         <v>22770000</v>
       </c>
-      <c r="JL11" t="n">
+      <c r="JN11" t="n">
         <v>474041</v>
       </c>
-      <c r="JM11" t="inlineStr"/>
-      <c r="JN11" t="n">
-        <v>17685496</v>
-      </c>
-      <c r="JO11" t="n">
+      <c r="JO11" t="inlineStr"/>
+      <c r="JP11" t="n">
         <v>550409</v>
       </c>
-      <c r="JP11" t="n">
+      <c r="JQ11" t="n">
         <v>5577255</v>
       </c>
-      <c r="JQ11" t="n">
+      <c r="JR11" t="n">
         <v>1449950</v>
       </c>
-      <c r="JR11" t="n">
+      <c r="JS11" t="n">
         <v>519088</v>
       </c>
-      <c r="JS11" t="n">
+      <c r="JT11" t="n">
         <v>745507162</v>
       </c>
-      <c r="JT11" t="n">
+      <c r="JU11" t="n">
         <v>283253</v>
       </c>
-      <c r="JU11" t="n">
+      <c r="JV11" t="n">
         <v>1804033</v>
       </c>
-      <c r="JV11" t="n">
+      <c r="JW11" t="n">
         <v>28414904</v>
       </c>
-      <c r="JW11" t="inlineStr"/>
-      <c r="JX11" t="n">
+      <c r="JX11" t="inlineStr"/>
+      <c r="JY11" t="n">
         <v>2424881</v>
       </c>
-      <c r="JY11" t="n">
+      <c r="JZ11" t="n">
         <v>3634865</v>
       </c>
-      <c r="JZ11" t="inlineStr"/>
-      <c r="KA11" t="n">
+      <c r="KA11" t="inlineStr"/>
+      <c r="KB11" t="n">
         <v>154368333</v>
-      </c>
-      <c r="KB11" t="n">
-        <v>90363325</v>
       </c>
       <c r="KC11" t="inlineStr"/>
       <c r="KD11" t="n">
@@ -21266,13 +21266,13 @@
         <v>1023856471</v>
       </c>
       <c r="KM11" t="n">
-        <v>21585562</v>
+        <v>150000000</v>
       </c>
       <c r="KN11" t="n">
+        <v>3597594</v>
+      </c>
+      <c r="KO11" t="n">
         <v>7648089</v>
-      </c>
-      <c r="KO11" t="n">
-        <v>150000000</v>
       </c>
       <c r="KP11" t="n">
         <v>10156860</v>
@@ -21516,18 +21516,18 @@
         <v>1681</v>
       </c>
       <c r="OG11" t="inlineStr"/>
-      <c r="OH11" t="inlineStr"/>
+      <c r="OH11" t="n">
+        <v>78800000</v>
+      </c>
       <c r="OI11" t="n">
-        <v>78800000</v>
+        <v>47244381</v>
       </c>
       <c r="OJ11" t="n">
-        <v>47244381</v>
-      </c>
-      <c r="OK11" t="n">
         <v>54586293</v>
       </c>
+      <c r="OK11" t="inlineStr"/>
       <c r="OL11" t="n">
-        <v>86582069</v>
+        <v>300000</v>
       </c>
       <c r="OM11" t="n">
         <v>10289523</v>
@@ -21576,13 +21576,13 @@
       <c r="PC11" t="n">
         <v>47056</v>
       </c>
-      <c r="PD11" t="inlineStr"/>
+      <c r="PD11" t="n">
+        <v>373723879</v>
+      </c>
       <c r="PE11" t="n">
-        <v>373723879</v>
-      </c>
-      <c r="PF11" t="n">
         <v>11800000</v>
       </c>
+      <c r="PF11" t="inlineStr"/>
       <c r="PG11" t="n">
         <v>200000</v>
       </c>
@@ -21621,10 +21621,10 @@
         <v>56507194</v>
       </c>
       <c r="PV11" t="inlineStr"/>
-      <c r="PW11" t="inlineStr"/>
-      <c r="PX11" t="n">
+      <c r="PW11" t="n">
         <v>524000000</v>
       </c>
+      <c r="PX11" t="inlineStr"/>
       <c r="PY11" t="n">
         <v>6155508607</v>
       </c>
@@ -23006,59 +23006,59 @@
         <v>5984655</v>
       </c>
       <c r="JC12" t="n">
+        <v>95000000</v>
+      </c>
+      <c r="JD12" t="inlineStr"/>
+      <c r="JE12" t="n">
         <v>1266161</v>
       </c>
-      <c r="JD12" t="n">
+      <c r="JF12" t="n">
         <v>109626</v>
       </c>
-      <c r="JE12" t="inlineStr"/>
-      <c r="JF12" t="n">
+      <c r="JG12" t="inlineStr"/>
+      <c r="JH12" t="n">
         <v>6525331</v>
       </c>
-      <c r="JG12" t="inlineStr"/>
-      <c r="JH12" t="inlineStr"/>
       <c r="JI12" t="inlineStr"/>
-      <c r="JJ12" t="n">
+      <c r="JJ12" t="inlineStr"/>
+      <c r="JK12" t="inlineStr"/>
+      <c r="JL12" t="n">
         <v>6286302</v>
       </c>
-      <c r="JK12" t="n">
-        <v>2718790</v>
-      </c>
-      <c r="JL12" t="n">
+      <c r="JM12" t="n">
+        <v>19662000</v>
+      </c>
+      <c r="JN12" t="n">
         <v>371399</v>
       </c>
-      <c r="JM12" t="inlineStr"/>
-      <c r="JN12" t="n">
-        <v>95000000</v>
-      </c>
-      <c r="JO12" t="n">
+      <c r="JO12" t="inlineStr"/>
+      <c r="JP12" t="n">
         <v>524159</v>
       </c>
-      <c r="JP12" t="inlineStr"/>
-      <c r="JQ12" t="n">
+      <c r="JQ12" t="inlineStr"/>
+      <c r="JR12" t="n">
         <v>896240</v>
       </c>
-      <c r="JR12" t="n">
+      <c r="JS12" t="n">
         <v>5552620</v>
       </c>
-      <c r="JS12" t="n">
+      <c r="JT12" t="n">
         <v>1641165</v>
       </c>
-      <c r="JT12" t="n">
+      <c r="JU12" t="n">
         <v>1326762</v>
       </c>
-      <c r="JU12" t="n">
+      <c r="JV12" t="n">
         <v>1731172</v>
       </c>
-      <c r="JV12" t="n">
+      <c r="JW12" t="n">
         <v>17931341</v>
       </c>
-      <c r="JW12" t="inlineStr"/>
       <c r="JX12" t="inlineStr"/>
-      <c r="JY12" t="n">
+      <c r="JY12" t="inlineStr"/>
+      <c r="JZ12" t="n">
         <v>1564407</v>
       </c>
-      <c r="JZ12" t="inlineStr"/>
       <c r="KA12" t="inlineStr"/>
       <c r="KB12" t="inlineStr"/>
       <c r="KC12" t="inlineStr"/>
@@ -23084,19 +23084,19 @@
         <v>698113867</v>
       </c>
       <c r="KM12" t="n">
+        <v>170000000</v>
+      </c>
+      <c r="KN12" t="n">
         <v>3373539</v>
       </c>
-      <c r="KN12" t="n">
-        <v>8010115</v>
-      </c>
       <c r="KO12" t="n">
-        <v>170000000</v>
+        <v>501886133</v>
       </c>
       <c r="KP12" t="n">
         <v>3597221</v>
       </c>
       <c r="KQ12" t="n">
-        <v>30000000</v>
+        <v>201812529</v>
       </c>
       <c r="KR12" t="n">
         <v>18487944</v>
@@ -23332,21 +23332,21 @@
         <v>1879</v>
       </c>
       <c r="OG12" t="inlineStr"/>
-      <c r="OH12" t="inlineStr"/>
+      <c r="OH12" t="n">
+        <v>78800000</v>
+      </c>
       <c r="OI12" t="n">
-        <v>78800000</v>
+        <v>71611237</v>
       </c>
       <c r="OJ12" t="n">
-        <v>71611237</v>
-      </c>
-      <c r="OK12" t="n">
         <v>35450354</v>
       </c>
+      <c r="OK12" t="inlineStr"/>
       <c r="OL12" t="n">
-        <v>2197073</v>
+        <v>89971099</v>
       </c>
       <c r="OM12" t="n">
-        <v>9283423</v>
+        <v>262589</v>
       </c>
       <c r="ON12" t="n">
         <v>267320823</v>
@@ -23355,10 +23355,10 @@
         <v>57662</v>
       </c>
       <c r="OP12" t="n">
-        <v>298366069</v>
+        <v>13319818</v>
       </c>
       <c r="OQ12" t="n">
-        <v>260882805</v>
+        <v>5574</v>
       </c>
       <c r="OR12" t="n">
         <v>35919992</v>
@@ -23390,13 +23390,13 @@
       <c r="PC12" t="n">
         <v>46801</v>
       </c>
-      <c r="PD12" t="inlineStr"/>
+      <c r="PD12" t="n">
+        <v>126722787</v>
+      </c>
       <c r="PE12" t="n">
-        <v>126722787</v>
-      </c>
-      <c r="PF12" t="n">
         <v>12950000</v>
       </c>
+      <c r="PF12" t="inlineStr"/>
       <c r="PG12" t="inlineStr"/>
       <c r="PH12" t="n">
         <v>24500878</v>
@@ -23433,16 +23433,16 @@
         <v>8322000000</v>
       </c>
       <c r="PV12" t="inlineStr"/>
-      <c r="PW12" t="inlineStr"/>
-      <c r="PX12" t="n">
+      <c r="PW12" t="n">
         <v>461000000</v>
       </c>
+      <c r="PX12" t="inlineStr"/>
       <c r="PY12" t="n">
         <v>2114956463</v>
       </c>
       <c r="PZ12" t="inlineStr"/>
       <c r="QA12" t="n">
-        <v>339582313</v>
+        <v>244749664</v>
       </c>
       <c r="QB12" t="n">
         <v>1749194941</v>
@@ -24822,59 +24822,59 @@
         <v>5559079</v>
       </c>
       <c r="JC13" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="JD13" t="inlineStr"/>
+      <c r="JE13" t="n">
         <v>2919721</v>
       </c>
-      <c r="JD13" t="n">
+      <c r="JF13" t="n">
         <v>54804077</v>
       </c>
-      <c r="JE13" t="inlineStr"/>
-      <c r="JF13" t="n">
-        <v>4656981</v>
-      </c>
       <c r="JG13" t="inlineStr"/>
-      <c r="JH13" t="inlineStr"/>
+      <c r="JH13" t="n">
+        <v>503089162</v>
+      </c>
       <c r="JI13" t="inlineStr"/>
-      <c r="JJ13" t="n">
+      <c r="JJ13" t="inlineStr"/>
+      <c r="JK13" t="inlineStr"/>
+      <c r="JL13" t="n">
         <v>4203068</v>
       </c>
-      <c r="JK13" t="n">
+      <c r="JM13" t="n">
         <v>19152000</v>
       </c>
-      <c r="JL13" t="n">
+      <c r="JN13" t="n">
         <v>408134</v>
       </c>
-      <c r="JM13" t="inlineStr"/>
-      <c r="JN13" t="n">
-        <v>121000000</v>
-      </c>
-      <c r="JO13" t="n">
+      <c r="JO13" t="inlineStr"/>
+      <c r="JP13" t="n">
         <v>836162</v>
       </c>
-      <c r="JP13" t="inlineStr"/>
-      <c r="JQ13" t="n">
+      <c r="JQ13" t="inlineStr"/>
+      <c r="JR13" t="n">
         <v>8080143</v>
       </c>
-      <c r="JR13" t="n">
+      <c r="JS13" t="n">
         <v>14269587</v>
       </c>
-      <c r="JS13" t="n">
+      <c r="JT13" t="n">
         <v>2121397</v>
       </c>
-      <c r="JT13" t="n">
+      <c r="JU13" t="n">
         <v>1051254</v>
       </c>
-      <c r="JU13" t="n">
+      <c r="JV13" t="n">
         <v>335037</v>
       </c>
-      <c r="JV13" t="n">
+      <c r="JW13" t="n">
         <v>14762182</v>
       </c>
-      <c r="JW13" t="inlineStr"/>
       <c r="JX13" t="inlineStr"/>
-      <c r="JY13" t="n">
+      <c r="JY13" t="inlineStr"/>
+      <c r="JZ13" t="n">
         <v>1172818</v>
       </c>
-      <c r="JZ13" t="inlineStr"/>
       <c r="KA13" t="inlineStr"/>
       <c r="KB13" t="inlineStr"/>
       <c r="KC13" t="inlineStr"/>
@@ -24898,13 +24898,13 @@
         <v>450008200</v>
       </c>
       <c r="KM13" t="n">
+        <v>150000000</v>
+      </c>
+      <c r="KN13" t="n">
         <v>3774967</v>
       </c>
-      <c r="KN13" t="n">
-        <v>319991800</v>
-      </c>
       <c r="KO13" t="n">
-        <v>150000000</v>
+        <v>7977201</v>
       </c>
       <c r="KP13" t="n">
         <v>14388885</v>
@@ -25142,18 +25142,18 @@
         <v>2057</v>
       </c>
       <c r="OG13" t="inlineStr"/>
-      <c r="OH13" t="inlineStr"/>
+      <c r="OH13" t="n">
+        <v>78800000</v>
+      </c>
       <c r="OI13" t="n">
-        <v>78800000</v>
+        <v>75534467</v>
       </c>
       <c r="OJ13" t="n">
-        <v>75534467</v>
-      </c>
-      <c r="OK13" t="n">
         <v>68270</v>
       </c>
+      <c r="OK13" t="inlineStr"/>
       <c r="OL13" t="n">
-        <v>134828517</v>
+        <v>94031581</v>
       </c>
       <c r="OM13" t="n">
         <v>10036229</v>
@@ -25168,7 +25168,7 @@
         <v>13272852</v>
       </c>
       <c r="OQ13" t="n">
-        <v>8427</v>
+        <v>283480945</v>
       </c>
       <c r="OR13" t="n">
         <v>50351262</v>
@@ -25183,7 +25183,7 @@
         <v>54144368</v>
       </c>
       <c r="OV13" t="n">
-        <v>29100000</v>
+        <v>608000000</v>
       </c>
       <c r="OW13" t="n">
         <v>959746057</v>
@@ -25200,13 +25200,13 @@
       <c r="PC13" t="n">
         <v>90</v>
       </c>
-      <c r="PD13" t="inlineStr"/>
+      <c r="PD13" t="n">
+        <v>254044918</v>
+      </c>
       <c r="PE13" t="n">
-        <v>254044918</v>
-      </c>
-      <c r="PF13" t="n">
         <v>11800000</v>
       </c>
+      <c r="PF13" t="inlineStr"/>
       <c r="PG13" t="inlineStr"/>
       <c r="PH13" t="n">
         <v>7925605</v>
@@ -25245,10 +25245,10 @@
         <v>8975000000</v>
       </c>
       <c r="PV13" t="inlineStr"/>
-      <c r="PW13" t="inlineStr"/>
-      <c r="PX13" t="n">
+      <c r="PW13" t="n">
         <v>401000000</v>
       </c>
+      <c r="PX13" t="inlineStr"/>
       <c r="PY13" t="n">
         <v>696091382</v>
       </c>
@@ -26682,65 +26682,65 @@
         <v>1542711</v>
       </c>
       <c r="JC14" t="n">
+        <v>1055246824</v>
+      </c>
+      <c r="JD14" t="inlineStr"/>
+      <c r="JE14" t="n">
         <v>2890524</v>
       </c>
-      <c r="JD14" t="n">
+      <c r="JF14" t="n">
         <v>153000000</v>
       </c>
-      <c r="JE14" t="inlineStr"/>
-      <c r="JF14" t="n">
+      <c r="JG14" t="inlineStr"/>
+      <c r="JH14" t="n">
         <v>4656981</v>
       </c>
-      <c r="JG14" t="n">
+      <c r="JI14" t="n">
         <v>6700000000</v>
       </c>
-      <c r="JH14" t="inlineStr"/>
-      <c r="JI14" t="inlineStr"/>
-      <c r="JJ14" t="n">
+      <c r="JJ14" t="inlineStr"/>
+      <c r="JK14" t="inlineStr"/>
+      <c r="JL14" t="n">
         <v>4161037</v>
       </c>
-      <c r="JK14" t="n">
+      <c r="JM14" t="n">
         <v>2299000</v>
       </c>
-      <c r="JL14" t="n">
+      <c r="JN14" t="n">
         <v>330802</v>
       </c>
-      <c r="JM14" t="n">
+      <c r="JO14" t="n">
         <v>64701311</v>
       </c>
-      <c r="JN14" t="n">
-        <v>1055246824</v>
-      </c>
-      <c r="JO14" t="n">
+      <c r="JP14" t="n">
         <v>974940</v>
       </c>
-      <c r="JP14" t="inlineStr"/>
-      <c r="JQ14" t="n">
+      <c r="JQ14" t="inlineStr"/>
+      <c r="JR14" t="n">
         <v>7999342</v>
       </c>
-      <c r="JR14" t="n">
+      <c r="JS14" t="n">
         <v>14126891</v>
       </c>
-      <c r="JS14" t="n">
+      <c r="JT14" t="n">
         <v>77816182</v>
       </c>
-      <c r="JT14" t="n">
+      <c r="JU14" t="n">
         <v>1040741</v>
       </c>
-      <c r="JU14" t="n">
+      <c r="JV14" t="n">
         <v>331686</v>
       </c>
-      <c r="JV14" t="n">
+      <c r="JW14" t="n">
         <v>14768941</v>
       </c>
-      <c r="JW14" t="n">
+      <c r="JX14" t="n">
         <v>192180382</v>
       </c>
-      <c r="JX14" t="inlineStr"/>
-      <c r="JY14" t="n">
+      <c r="JY14" t="inlineStr"/>
+      <c r="JZ14" t="n">
         <v>1172818</v>
       </c>
-      <c r="JZ14" t="inlineStr"/>
       <c r="KA14" t="inlineStr"/>
       <c r="KB14" t="inlineStr"/>
       <c r="KC14" t="n">
@@ -26770,19 +26770,19 @@
         <v>577151901</v>
       </c>
       <c r="KM14" t="n">
+        <v>10913460</v>
+      </c>
+      <c r="KN14" t="n">
         <v>4089547</v>
       </c>
-      <c r="KN14" t="n">
+      <c r="KO14" t="n">
         <v>9104019</v>
-      </c>
-      <c r="KO14" t="n">
-        <v>10913460</v>
       </c>
       <c r="KP14" t="n">
         <v>35972212</v>
       </c>
       <c r="KQ14" t="n">
-        <v>238956392</v>
+        <v>16643085200</v>
       </c>
       <c r="KR14" t="n">
         <v>29405861</v>
@@ -27026,16 +27026,16 @@
         <v>2057</v>
       </c>
       <c r="OG14" t="inlineStr"/>
-      <c r="OH14" t="inlineStr"/>
+      <c r="OH14" t="n">
+        <v>78800000</v>
+      </c>
       <c r="OI14" t="n">
-        <v>78800000</v>
+        <v>55090175</v>
       </c>
       <c r="OJ14" t="n">
-        <v>55090175</v>
-      </c>
-      <c r="OK14" t="n">
         <v>68270</v>
       </c>
+      <c r="OK14" t="inlineStr"/>
       <c r="OL14" t="n">
         <v>7618683</v>
       </c>
@@ -27065,7 +27065,7 @@
       </c>
       <c r="OU14" t="inlineStr"/>
       <c r="OV14" t="n">
-        <v>2488180000</v>
+        <v>28700000</v>
       </c>
       <c r="OW14" t="n">
         <v>5051878920</v>
@@ -27083,13 +27083,13 @@
         <v>90</v>
       </c>
       <c r="PD14" t="n">
+        <v>440746662</v>
+      </c>
+      <c r="PE14" t="n">
+        <v>15674723</v>
+      </c>
+      <c r="PF14" t="n">
         <v>25000000</v>
-      </c>
-      <c r="PE14" t="n">
-        <v>440746662</v>
-      </c>
-      <c r="PF14" t="n">
-        <v>15674723</v>
       </c>
       <c r="PG14" t="inlineStr"/>
       <c r="PH14" t="n">
@@ -27127,10 +27127,10 @@
         <v>10985000000</v>
       </c>
       <c r="PV14" t="inlineStr"/>
-      <c r="PW14" t="inlineStr"/>
-      <c r="PX14" t="n">
+      <c r="PW14" t="n">
         <v>557000000</v>
       </c>
+      <c r="PX14" t="inlineStr"/>
       <c r="PY14" t="n">
         <v>411772367</v>
       </c>
@@ -27138,7 +27138,7 @@
         <v>158694466</v>
       </c>
       <c r="QA14" t="n">
-        <v>238924078</v>
+        <v>360455291</v>
       </c>
       <c r="QB14" t="n">
         <v>1818815805</v>
